--- a/Aufgabe_5/Data/alle_ergebnisse.xlsx
+++ b/Aufgabe_5/Data/alle_ergebnisse.xlsx
@@ -863,2402 +863,2402 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.3</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
-        <v>28.6</v>
+        <v>29.7</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>6.735233459945952</v>
+        <v>19.78598282844214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.7</v>
+        <v>5.5</v>
       </c>
       <c r="B32" t="n">
-        <v>35.2</v>
+        <v>26.3</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>24.10120545191618</v>
+        <v>18.59892790565267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="B33" t="n">
-        <v>34.2</v>
+        <v>24.7</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>29.39103381652844</v>
+        <v>15.40949690329237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.2</v>
+        <v>19.1</v>
       </c>
       <c r="B34" t="n">
-        <v>26.2</v>
+        <v>17.8</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-13.10536127899238</v>
+        <v>-19.73799904305454</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.7</v>
+        <v>19.3</v>
       </c>
       <c r="B35" t="n">
-        <v>19.2</v>
+        <v>36.7</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>6.461520976618985</v>
+        <v>11.26643537276769</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.9</v>
+        <v>29</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>32.4</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>38.83680022025786</v>
+        <v>-13.15229494235607</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16.4</v>
+        <v>27.4</v>
       </c>
       <c r="B37" t="n">
-        <v>13.6</v>
+        <v>5.5</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>-21.89612959928578</v>
+        <v>-54.93658260871892</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>24.4</v>
+        <v>10.9</v>
       </c>
       <c r="B38" t="n">
-        <v>21.4</v>
+        <v>25.1</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>-23.20820274413471</v>
+        <v>6.985893752322198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>26.1</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>10.72877144774089</v>
+        <v>17.37615349084621</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>28.1</v>
+        <v>21.1</v>
       </c>
       <c r="B40" t="n">
-        <v>23.3</v>
+        <v>37.3</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>-26.64829403887124</v>
+        <v>9.054725578510958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22.6</v>
+        <v>11.9</v>
       </c>
       <c r="B41" t="n">
-        <v>19.6</v>
+        <v>24</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>-22.98765485810211</v>
+        <v>3.378833809578538</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14.1</v>
+        <v>23.5</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>20.7</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>-13.81560093769965</v>
+        <v>-22.76606848308106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17.2</v>
+        <v>4.2</v>
       </c>
       <c r="B43" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>-6.562646093230015</v>
+        <v>15.27367915061734</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28.8</v>
+        <v>19.8</v>
       </c>
       <c r="B44" t="n">
-        <v>39.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>-0.3511673772476822</v>
+        <v>-36.91457404432424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>11.9</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>-22.56130336508005</v>
+        <v>-45.20796652829272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22.3</v>
+        <v>3.3</v>
       </c>
       <c r="B46" t="n">
-        <v>9.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>-38.71426198387094</v>
+        <v>41.93277853662189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.2</v>
+        <v>14.9</v>
       </c>
       <c r="B47" t="n">
-        <v>27.2</v>
+        <v>22.8</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>27.75416056903507</v>
+        <v>-3.957812679260217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23.4</v>
+        <v>18.4</v>
       </c>
       <c r="B48" t="n">
-        <v>19.2</v>
+        <v>16.1</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>-25.07683804900738</v>
+        <v>-21.31153201089529</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27.8</v>
+        <v>2.1</v>
       </c>
       <c r="B49" t="n">
-        <v>34.7</v>
+        <v>24.3</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>-7.197707452680646</v>
+        <v>21.33854058330905</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21.3</v>
+        <v>13.8</v>
       </c>
       <c r="B50" t="n">
-        <v>14.1</v>
+        <v>22.4</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>-29.79743695252964</v>
+        <v>-2.66152230244289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B51" t="n">
-        <v>5.2</v>
+        <v>22.4</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>-49.37615722774503</v>
+        <v>13.01856580069338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>15.6</v>
+        <v>18.1</v>
       </c>
       <c r="B52" t="n">
-        <v>32.5</v>
+        <v>35.9</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>10.89013301007466</v>
+        <v>12.07718793286413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="B53" t="n">
-        <v>21.2</v>
+        <v>13.1</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>-7.859974959035789</v>
+        <v>-18.09302709117981</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27.5</v>
+        <v>3.4</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>29.9</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>-19.43978123905728</v>
+        <v>28.31425283675527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.4</v>
+        <v>12.3</v>
       </c>
       <c r="B55" t="n">
-        <v>19.9</v>
+        <v>23.8</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>15.28489332196403</v>
+        <v>2.334242214125904</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.6</v>
+        <v>9.9</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>14.1</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>31.56494714079128</v>
+        <v>-9.484595546194011</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15.7</v>
+        <v>27.3</v>
       </c>
       <c r="B57" t="n">
-        <v>17.6</v>
+        <v>7.8</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>-14.01164350306196</v>
+        <v>-50.94200613193554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14.7</v>
+        <v>5.3</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>20.6</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>-21.52190421456964</v>
+        <v>9.497274480295747</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.9</v>
+        <v>18.3</v>
       </c>
       <c r="B59" t="n">
-        <v>15.4</v>
+        <v>16.6</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>-1.982018898336579</v>
+        <v>-20.30369839644808</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.8</v>
+        <v>21.5</v>
       </c>
       <c r="B60" t="n">
-        <v>32.8</v>
+        <v>18.1</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>5.686073267808403</v>
+        <v>-23.51659623049022</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20.6</v>
+        <v>8.9</v>
       </c>
       <c r="B61" t="n">
-        <v>38.7</v>
+        <v>7.3</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>12.26866190154155</v>
+        <v>-18.98601816592581</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>16.8</v>
+        <v>29.8</v>
       </c>
       <c r="B62" t="n">
-        <v>5.2</v>
+        <v>26.5</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>-36.54699423426989</v>
+        <v>-24.36763687928855</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.3</v>
+        <v>7.7</v>
       </c>
       <c r="B63" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>19.07013608406151</v>
+        <v>-3.241551294148472</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24.3</v>
+        <v>29.6</v>
       </c>
       <c r="B64" t="n">
-        <v>35.2</v>
+        <v>30.8</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>-0.1316579802035172</v>
+        <v>-16.87627440277782</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="B65" t="n">
-        <v>21.3</v>
+        <v>14.7</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>12.97516224502616</v>
+        <v>-7.954466134020489</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21.9</v>
+        <v>7.3</v>
       </c>
       <c r="B66" t="n">
-        <v>18.3</v>
+        <v>14.5</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>-23.89746718986814</v>
+        <v>-4.188121606919953</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20.2</v>
+        <v>2.3</v>
       </c>
       <c r="B67" t="n">
-        <v>35.4</v>
+        <v>14.3</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>7.505697931340499</v>
+        <v>4.389159042733759</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>28.9</v>
+        <v>19.7</v>
       </c>
       <c r="B68" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>-32.55387088720607</v>
+        <v>-16.3269816656732</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="B69" t="n">
-        <v>17.9</v>
+        <v>31.8</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>-24.73937064529668</v>
+        <v>17.0341174904506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28.6</v>
+        <v>2.6</v>
       </c>
       <c r="B70" t="n">
-        <v>29.1</v>
+        <v>9.9</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>-17.91525891255711</v>
+        <v>-3.446316412149475</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16.2</v>
+        <v>20.3</v>
       </c>
       <c r="B71" t="n">
-        <v>31.9</v>
+        <v>26.1</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>8.825455139839676</v>
+        <v>-8.103989676750238</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>11.4</v>
+        <v>19.1</v>
       </c>
       <c r="B72" t="n">
-        <v>14.5</v>
+        <v>22.8</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>-11.49361720042663</v>
+        <v>-11.44149109212071</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>23.3</v>
+        <v>7.4</v>
       </c>
       <c r="B73" t="n">
-        <v>18.3</v>
+        <v>8.5</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>-26.39202666082165</v>
+        <v>-14.32211396739437</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.1</v>
+        <v>5.5</v>
       </c>
       <c r="B74" t="n">
-        <v>32.1</v>
+        <v>34</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>37.84474937384226</v>
+        <v>31.37555015009076</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.3</v>
+        <v>17.8</v>
       </c>
       <c r="B75" t="n">
-        <v>23.8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>20.15252414950803</v>
+        <v>-35.34207956547193</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>20.5</v>
+        <v>34.2</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>-8.843303252812705</v>
+        <v>25.11464615203673</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.6</v>
+        <v>13.6</v>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>-13.97135541436007</v>
+        <v>-26.19909956242467</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>20.3</v>
+        <v>24.3</v>
       </c>
       <c r="B78" t="n">
-        <v>14.5</v>
+        <v>19.4</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>-27.35188812291672</v>
+        <v>-26.34862310515442</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.8</v>
+        <v>16</v>
       </c>
       <c r="B79" t="n">
-        <v>38.9</v>
+        <v>12.5</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>46.09889225809729</v>
+        <v>-23.00863007107593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26.5</v>
+        <v>27.6</v>
       </c>
       <c r="B80" t="n">
-        <v>19.2</v>
+        <v>13.8</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>-30.60050544897585</v>
+        <v>-41.52074504887641</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.300000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="B81" t="n">
-        <v>14.4</v>
+        <v>28.5</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>-6.135879959476842</v>
+        <v>25.63486497178615</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B82" t="n">
         <v>21.5</v>
-      </c>
-      <c r="B82" t="n">
-        <v>28.9</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>-5.596139056473152</v>
+        <v>12.23792564694058</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>27.2</v>
+        <v>17.2</v>
       </c>
       <c r="B83" t="n">
-        <v>18.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>-32.34557566150862</v>
+        <v>-31.28623978701282</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.6</v>
+        <v>9.6</v>
       </c>
       <c r="B84" t="n">
-        <v>13.5</v>
+        <v>26.8</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>2.527169312522879</v>
+        <v>12.12308310723938</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.9</v>
+        <v>24.8</v>
       </c>
       <c r="B85" t="n">
-        <v>27.9</v>
+        <v>31.8</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>22.32290736607442</v>
+        <v>-6.664197483607632</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="B86" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>-57.03137288529755</v>
+        <v>-53.01893666250567</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.2</v>
+        <v>23.6</v>
       </c>
       <c r="B87" t="n">
-        <v>9.300000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>-9.074650669460887</v>
+        <v>2.111202709385278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17</v>
+        <v>26.3</v>
       </c>
       <c r="B88" t="n">
-        <v>36.8</v>
+        <v>29.2</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>15.53057037692425</v>
+        <v>-13.65112390840054</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>14.1</v>
+        <v>27.4</v>
       </c>
       <c r="B89" t="n">
-        <v>22.6</v>
+        <v>31.1</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>-2.864210442466995</v>
+        <v>-12.45846189993772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>16.8</v>
+        <v>28.5</v>
       </c>
       <c r="B90" t="n">
-        <v>33</v>
+        <v>31.2</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>9.581589972922188</v>
+        <v>-14.25254275381108</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="n">
-        <v>9.699999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>-0.03633752375658261</v>
+        <v>16.21464237771547</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>28.2</v>
+        <v>25.8</v>
       </c>
       <c r="B92" t="n">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>-34.79112449112154</v>
+        <v>-49.59670511377763</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>14</v>
+        <v>10.9</v>
       </c>
       <c r="B93" t="n">
-        <v>23.2</v>
+        <v>17.7</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>-1.690446669001121</v>
+        <v>-5.292938015059871</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>24.1</v>
       </c>
       <c r="B94" t="n">
-        <v>34.3</v>
+        <v>38</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>36.32791111099232</v>
+        <v>4.870752111027059</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>28.9</v>
+        <v>0.2</v>
       </c>
       <c r="B95" t="n">
-        <v>35.2</v>
+        <v>30.7</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>-8.328067670479296</v>
+        <v>35.34354432822696</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>25.9</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>-5.853030282780066</v>
+        <v>8.669700663179249</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>20.3</v>
+        <v>14.1</v>
       </c>
       <c r="B97" t="n">
-        <v>7.5</v>
+        <v>12.7</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>-38.96699925422408</v>
+        <v>-19.29129618531598</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18</v>
+        <v>12.2</v>
       </c>
       <c r="B98" t="n">
-        <v>38.2</v>
+        <v>18.8</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>16.07176440964752</v>
+        <v>-5.784082917454102</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.5</v>
+        <v>28.2</v>
       </c>
       <c r="B99" t="n">
-        <v>26.2</v>
+        <v>38.4</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>23.77848232724862</v>
+        <v>-1.7710228464049</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>16.8</v>
+        <v>28.6</v>
       </c>
       <c r="B100" t="n">
-        <v>16.9</v>
+        <v>5.9</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>-17.13316562908474</v>
+        <v>-56.41105580489008</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.4</v>
+        <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>9.6</v>
+        <v>13.9</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>-17.84236679880357</v>
+        <v>2.478158671182303</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>24.2</v>
+        <v>4.3</v>
       </c>
       <c r="B102" t="n">
-        <v>12.3</v>
+        <v>32.8</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>-37.95148157612663</v>
+        <v>31.52258207411249</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="B103" t="n">
-        <v>29.4</v>
+        <v>23.2</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>20.00092362880139</v>
+        <v>4.545952008382628</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.3</v>
+        <v>18.9</v>
       </c>
       <c r="B104" t="n">
-        <v>36.1</v>
+        <v>32.6</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>36.99827732172883</v>
+        <v>5.176030130417242</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>15.1</v>
+        <v>10.8</v>
       </c>
       <c r="B105" t="n">
-        <v>21.8</v>
+        <v>15.9</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>-5.973479908154621</v>
+        <v>-8.101498058042225</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="B106" t="n">
-        <v>9.699999999999999</v>
+        <v>15.7</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>-43.6911282654428</v>
+        <v>-29.28074824047667</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>18.1</v>
+        <v>24.5</v>
       </c>
       <c r="B107" t="n">
-        <v>9.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>-32.22616452512251</v>
+        <v>-47.11439830315928</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.9</v>
+        <v>28.4</v>
       </c>
       <c r="B108" t="n">
-        <v>31</v>
+        <v>12.1</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>34.59405506980624</v>
+        <v>-45.76702030702448</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>18.1</v>
+        <v>26.1</v>
       </c>
       <c r="B109" t="n">
-        <v>32.1</v>
+        <v>10.1</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>5.771841890154427</v>
+        <v>-44.98741864226012</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11.6</v>
+        <v>21.9</v>
       </c>
       <c r="B110" t="n">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>6.402334652920153</v>
+        <v>-6.972590969963136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="B111" t="n">
-        <v>17</v>
+        <v>13.1</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>-2.534427102406534</v>
+        <v>-4.194767181581748</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="B112" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>-9.91800725460898</v>
+        <v>-10.84567933238352</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="B113" t="n">
-        <v>27.2</v>
+        <v>23</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>7.084953523991796</v>
+        <v>-0.775027251561724</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>13</v>
+        <v>28.1</v>
       </c>
       <c r="B114" t="n">
-        <v>17.2</v>
+        <v>21.8</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>-9.864428016583499</v>
+        <v>-29.13724642415139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="B115" t="n">
-        <v>31.6</v>
+        <v>22.7</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>10.64404131438332</v>
+        <v>-3.767377199571248</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.1</v>
+        <v>17.8</v>
       </c>
       <c r="B116" t="n">
-        <v>21.6</v>
+        <v>6.5</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>4.385628935037303</v>
+        <v>-36.17173036056531</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>13.3</v>
+        <v>17</v>
       </c>
       <c r="B117" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>0.8842743386250405</v>
+        <v>-34.58033764671607</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7</v>
+        <v>24.5</v>
       </c>
       <c r="B118" t="n">
-        <v>26.6</v>
+        <v>35.7</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>27.64949371169212</v>
+        <v>0.3416271761822234</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>7.7</v>
+        <v>13.6</v>
       </c>
       <c r="B119" t="n">
-        <v>14.2</v>
+        <v>39.7</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>-5.398643361391269</v>
+        <v>26.40076084649581</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16.3</v>
+        <v>22.8</v>
       </c>
       <c r="B120" t="n">
-        <v>38.5</v>
+        <v>29.4</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>19.59866281571851</v>
+        <v>-7.082864912979446</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>25.7</v>
+        <v>0.8</v>
       </c>
       <c r="B121" t="n">
-        <v>8.1</v>
+        <v>16.1</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>-47.59329054521837</v>
+        <v>10.04864419537726</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>12.4</v>
+        <v>24.3</v>
       </c>
       <c r="B122" t="n">
-        <v>13</v>
+        <v>10.7</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>-15.76439777924499</v>
+        <v>-40.78454693977928</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>24.1</v>
+        <v>12.5</v>
       </c>
       <c r="B123" t="n">
-        <v>39.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>6.695983860232502</v>
+        <v>-22.24792664130852</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>25.8</v>
+        <v>21.7</v>
       </c>
       <c r="B124" t="n">
-        <v>17.4</v>
+        <v>23.8</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>-32.33996857583527</v>
+        <v>-14.4149428051333</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>13.8</v>
+        <v>0.3</v>
       </c>
       <c r="B125" t="n">
-        <v>30.4</v>
+        <v>11.2</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>10.61289041905123</v>
+        <v>2.808980500231208</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.9</v>
+        <v>3.2</v>
       </c>
       <c r="B126" t="n">
-        <v>22.5</v>
+        <v>13.7</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>0.889881424298391</v>
+        <v>1.789932714437306</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4</v>
+        <v>24.7</v>
       </c>
       <c r="B127" t="n">
-        <v>13.6</v>
+        <v>23.8</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>6.613121497325626</v>
+        <v>-19.76042738574793</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17.6</v>
+        <v>26.9</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>10.3</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>-38.30431710713782</v>
+        <v>-46.08102087905333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
+        <v>12.9</v>
       </c>
       <c r="B129" t="n">
-        <v>25.7</v>
+        <v>29.1</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>20.27608924184792</v>
+        <v>10.05944372599284</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>18.6</v>
+        <v>25.8</v>
       </c>
       <c r="B130" t="n">
-        <v>17</v>
+        <v>29.9</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>-20.17452621843485</v>
+        <v>-11.5986986985007</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>17.2</v>
+        <v>3.4</v>
       </c>
       <c r="B131" t="n">
-        <v>29.9</v>
+        <v>36.3</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>3.725023765927929</v>
+        <v>38.93378301395056</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17.9</v>
+        <v>16.2</v>
       </c>
       <c r="B132" t="n">
-        <v>31.2</v>
+        <v>21.5</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>4.634836097693977</v>
+        <v>-8.431281398102684</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>21.7</v>
+        <v>6.7</v>
       </c>
       <c r="B133" t="n">
-        <v>14.6</v>
+        <v>24.2</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>-29.68051743485154</v>
+        <v>12.9762007340146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>23.4</v>
+        <v>0.9</v>
       </c>
       <c r="B134" t="n">
-        <v>22.1</v>
+        <v>35.6</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>-20.26486343746575</v>
+        <v>42.22684238466537</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>24</v>
+        <v>9.9</v>
       </c>
       <c r="B135" t="n">
-        <v>9.5</v>
+        <v>17.7</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>-42.24116038994193</v>
+        <v>-3.511109821521657</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>17.2</v>
+        <v>25.6</v>
       </c>
       <c r="B136" t="n">
-        <v>11.2</v>
+        <v>26</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>-27.30391597056459</v>
+        <v>-17.71360926152145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.9</v>
+        <v>24.2</v>
       </c>
       <c r="B137" t="n">
-        <v>23.4</v>
+        <v>8.1</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>21.98336298438682</v>
+        <v>-44.92054825491105</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.6</v>
+        <v>10.7</v>
       </c>
       <c r="B138" t="n">
-        <v>17</v>
+        <v>5.8</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>4.771068491100134</v>
+        <v>-24.68226129957474</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.5</v>
+        <v>26.1</v>
       </c>
       <c r="B139" t="n">
-        <v>25.1</v>
+        <v>11.7</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>18.38959419096676</v>
+        <v>-42.3325360979613</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>27.6</v>
+        <v>24.8</v>
       </c>
       <c r="B140" t="n">
-        <v>32.2</v>
+        <v>30.5</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>-10.98959578943992</v>
+        <v>-8.821289550850429</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>21.5</v>
+        <v>6.9</v>
       </c>
       <c r="B141" t="n">
-        <v>38.8</v>
+        <v>36.1</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>10.83094668637582</v>
+        <v>32.36552401852947</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.6</v>
+        <v>24.7</v>
       </c>
       <c r="B142" t="n">
-        <v>22.7</v>
+        <v>31</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>3.538118393935424</v>
+        <v>-7.813455936403224</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8.300000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="B143" t="n">
-        <v>22.1</v>
+        <v>13.1</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>6.640742284961252</v>
+        <v>-33.06038391690079</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>15.4</v>
+        <v>29.5</v>
       </c>
       <c r="B144" t="n">
-        <v>35.3</v>
+        <v>23.9</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>15.89254310130524</v>
+        <v>-28.14727255571268</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>15.1</v>
+        <v>16</v>
       </c>
       <c r="B145" t="n">
-        <v>31.6</v>
+        <v>25.7</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>10.28767567567568</v>
+        <v>-1.10584908061063</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>22.4</v>
+        <v>14</v>
       </c>
       <c r="B146" t="n">
-        <v>26.5</v>
+        <v>21.9</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-11.18210824710578</v>
+        <v>-3.847538736243916</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.7</v>
+        <v>11.7</v>
       </c>
       <c r="B147" t="n">
-        <v>15.3</v>
+        <v>19</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>-16.04620896695331</v>
+        <v>-4.561308502647641</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>17</v>
+        <v>11.4</v>
       </c>
       <c r="B148" t="n">
-        <v>20.1</v>
+        <v>30.2</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>-12.17976617919473</v>
+        <v>14.55741776550559</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="B149" t="n">
-        <v>6.9</v>
+        <v>16.1</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>-21.2533841761849</v>
+        <v>-31.28976989470928</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22.8</v>
+        <v>13.1</v>
       </c>
       <c r="B150" t="n">
-        <v>14.8</v>
+        <v>27.3</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>-31.30866812970622</v>
+        <v>6.716335224949013</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>21.1</v>
+        <v>17.8</v>
       </c>
       <c r="B151" t="n">
-        <v>24.7</v>
+        <v>35.4</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>-11.85247445784229</v>
+        <v>11.78208559583221</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5.1</v>
+        <v>28.9</v>
       </c>
       <c r="B152" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>13.83596393545162</v>
+        <v>-20.27503911982401</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>7.1</v>
+        <v>24.2</v>
       </c>
       <c r="B153" t="n">
-        <v>29.4</v>
+        <v>34.4</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>20.8918377255705</v>
+        <v>-1.280916432999115</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>22.2</v>
       </c>
       <c r="B154" t="n">
-        <v>7.2</v>
+        <v>17.9</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>-5.075505595992601</v>
+        <v>-25.09573628400432</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>22.7</v>
+        <v>0.8</v>
       </c>
       <c r="B155" t="n">
-        <v>24</v>
+        <v>20.3</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>-15.86491068063416</v>
+        <v>17.01771087416167</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>18.2</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>-16.63288353332069</v>
+        <v>0.3476489025866876</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5.1</v>
+        <v>26</v>
       </c>
       <c r="B157" t="n">
-        <v>27.4</v>
+        <v>35.9</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>21.13689093227339</v>
+        <v>-1.999254796087751</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22.6</v>
+        <v>10.2</v>
       </c>
       <c r="B158" t="n">
-        <v>16.3</v>
+        <v>39.6</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>-28.46335010571843</v>
+        <v>32.29304654550705</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.1</v>
+        <v>19.4</v>
       </c>
       <c r="B159" t="n">
-        <v>12.3</v>
+        <v>32.1</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>-11.04587585369962</v>
+        <v>3.455465238554751</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.1</v>
+        <v>22.4</v>
       </c>
       <c r="B160" t="n">
-        <v>19</v>
+        <v>12.2</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>12.5442421553192</v>
+        <v>-34.91012098677653</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="B161" t="n">
-        <v>6</v>
+        <v>17.4</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>-17.40127102673835</v>
+        <v>9.889359611020371</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>17.8</v>
+        <v>4.3</v>
       </c>
       <c r="B162" t="n">
-        <v>17.5</v>
+        <v>7.3</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>-17.91941286851089</v>
+        <v>-10.78960847565003</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="B163" t="n">
-        <v>17.2</v>
+        <v>36.8</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>-9.151696739168212</v>
+        <v>20.51968931883125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="B164" t="n">
-        <v>28.2</v>
+        <v>23.6</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>8.387889475470921</v>
+        <v>2.893295992857656</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4.7</v>
+        <v>26.2</v>
       </c>
       <c r="B165" t="n">
-        <v>17.5</v>
+        <v>33.4</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>5.422536466839695</v>
+        <v>-6.503874410262307</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>22.1</v>
+        <v>7.2</v>
       </c>
       <c r="B166" t="n">
-        <v>10.8</v>
+        <v>38.1</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>-36.69859475497654</v>
+        <v>35.14957874084154</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>14.7</v>
+        <v>28.7</v>
       </c>
       <c r="B167" t="n">
-        <v>18.1</v>
+        <v>26.4</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>-11.40016451443037</v>
+        <v>-22.5735560254152</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23.7</v>
+        <v>3.1</v>
       </c>
       <c r="B168" t="n">
-        <v>13.2</v>
+        <v>11.8</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>-35.56719604818943</v>
+        <v>-1.184557487563726</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="B169" t="n">
-        <v>15.6</v>
+        <v>18.3</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>2.448046264838663</v>
+        <v>10.49181694541936</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="B170" t="n">
-        <v>7.5</v>
+        <v>37</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>-11.5268450737356</v>
+        <v>42.41167077868098</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8</v>
+        <v>23.1</v>
       </c>
       <c r="B171" t="n">
-        <v>29.8</v>
+        <v>16.1</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>19.95191298746082</v>
+        <v>-29.68612452052489</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="B172" t="n">
-        <v>13.4</v>
+        <v>15.8</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-18.48615071089289</v>
+        <v>-14.68200971379847</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.1</v>
+        <v>26.3</v>
       </c>
       <c r="B173" t="n">
-        <v>34.9</v>
+        <v>39</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>40.70896563282698</v>
+        <v>2.610031675429759</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>21.2</v>
+        <v>10.7</v>
       </c>
       <c r="B174" t="n">
-        <v>31.3</v>
+        <v>34.4</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>-1.079266781963446</v>
+        <v>22.77376417976676</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>13.6</v>
+        <v>29.9</v>
       </c>
       <c r="B175" t="n">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>-23.21235670008849</v>
+        <v>-53.41766736789209</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>14.5</v>
+        <v>29.3</v>
       </c>
       <c r="B176" t="n">
-        <v>35.2</v>
+        <v>31.3</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>17.33025831647097</v>
+        <v>-15.51207514962297</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10.7</v>
+        <v>8.9</v>
       </c>
       <c r="B177" t="n">
-        <v>19.3</v>
+        <v>12.7</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-2.2816898320534</v>
+        <v>-10.02578957891727</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20</v>
+        <v>28.6</v>
       </c>
       <c r="B178" t="n">
-        <v>6.9</v>
+        <v>13.5</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>-39.42803175027467</v>
+        <v>-43.80036371947065</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4.8</v>
+        <v>21.2</v>
       </c>
       <c r="B179" t="n">
-        <v>23.9</v>
+        <v>26.2</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>15.86388382468117</v>
+        <v>-9.541704891915952</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>21.9</v>
+        <v>26.6</v>
       </c>
       <c r="B180" t="n">
-        <v>30.5</v>
+        <v>18.2</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>-3.653987789589605</v>
+        <v>-32.43798985851643</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>19.3</v>
+        <v>16.8</v>
       </c>
       <c r="B181" t="n">
-        <v>34.1</v>
+        <v>5.4</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>6.952251238282098</v>
+        <v>-36.21513391623255</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18.9</v>
+        <v>25.7</v>
       </c>
       <c r="B182" t="n">
-        <v>27.8</v>
+        <v>22.6</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>-2.788617502479234</v>
+        <v>-23.53341748751026</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>14.8</v>
+        <v>21.3</v>
       </c>
       <c r="B183" t="n">
-        <v>19.7</v>
+        <v>37.4</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>-8.92346478948537</v>
+        <v>8.864290098822</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>21.8</v>
+        <v>0.3</v>
       </c>
       <c r="B184" t="n">
-        <v>28.6</v>
+        <v>18.1</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>-6.628477991590643</v>
+        <v>14.25816147251989</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>22.7</v>
+        <v>13.5</v>
       </c>
       <c r="B185" t="n">
-        <v>35.6</v>
+        <v>27.7</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>3.382987765532327</v>
+        <v>6.667324583608433</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>14.7</v>
+        <v>18.3</v>
       </c>
       <c r="B186" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>6.022502182530673</v>
+        <v>-2.715101540468371</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
       <c r="B187" t="n">
-        <v>9.6</v>
+        <v>37.3</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>-22.11875446329528</v>
+        <v>25.09117932035488</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="B188" t="n">
-        <v>34.8</v>
+        <v>12.9</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>19.69564560941121</v>
+        <v>-18.60307022857098</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>20.3</v>
+        <v>28.2</v>
       </c>
       <c r="B189" t="n">
-        <v>12.7</v>
+        <v>16.4</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-30.3386309852529</v>
+        <v>-38.27565783051374</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.4</v>
+        <v>22.5</v>
       </c>
       <c r="B190" t="n">
-        <v>39.2</v>
+        <v>34.1</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>49.09124220610683</v>
+        <v>1.250401018959824</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>22.6</v>
+        <v>4.8</v>
       </c>
       <c r="B191" t="n">
-        <v>36.7</v>
+        <v>39.6</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>5.386402334091589</v>
+        <v>41.9149187906134</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.7</v>
+        <v>28.7</v>
       </c>
       <c r="B192" t="n">
-        <v>10.8</v>
+        <v>6.7</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>-18.16758154217912</v>
+        <v>-55.26179735209448</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1.3</v>
+        <v>28.3</v>
       </c>
       <c r="B193" t="n">
-        <v>37.4</v>
+        <v>16.5</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>44.50085396958625</v>
+        <v>-38.28791049084889</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.9</v>
+        <v>23</v>
       </c>
       <c r="B194" t="n">
-        <v>36.2</v>
+        <v>33.9</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>37.87693875816279</v>
+        <v>0.02762660415335638</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7</v>
+        <v>23.3</v>
       </c>
       <c r="B195" t="n">
-        <v>33</v>
+        <v>12.1</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>27.04350626959668</v>
+        <v>-36.6796965199796</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>31.3</v>
+        <v>19.2</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>19.76812308243364</v>
+        <v>14.83611348624859</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.199999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="B197" t="n">
-        <v>26.2</v>
+        <v>8.6</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>11.8402334305426</v>
+        <v>-33.57811111794221</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>28.1</v>
+        <v>9.6</v>
       </c>
       <c r="B198" t="n">
-        <v>38.1</v>
+        <v>21.7</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>-2.090630504107111</v>
+        <v>3.66064499728687</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>24.5</v>
+        <v>16.5</v>
       </c>
       <c r="B199" t="n">
-        <v>7.9</v>
+        <v>33.3</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>-45.78695703100986</v>
+        <v>10.61392890803968</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>18.1</v>
+        <v>14.4</v>
       </c>
       <c r="B200" t="n">
-        <v>29.6</v>
+        <v>6.5</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>1.623587914687512</v>
+        <v>-30.11351450253539</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="B201" t="n">
-        <v>39.1</v>
+        <v>10.3</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>33.77977240201334</v>
+        <v>-2.604412956720946</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>26.1</v>
+        <v>16.9</v>
       </c>
       <c r="B202" t="n">
-        <v>29.6</v>
+        <v>10.5</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>-12.63103763361819</v>
+        <v>-27.93087862563385</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="B203" t="n">
-        <v>15.2</v>
+        <v>12.4</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>-11.75756864212646</v>
+        <v>-17.11634437206468</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>27.9</v>
+        <v>15.5</v>
       </c>
       <c r="B204" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>-9.698912498295943</v>
+        <v>12.56168726059657</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>25.9</v>
+        <v>18.3</v>
       </c>
       <c r="B205" t="n">
-        <v>18.5</v>
+        <v>34.4</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>-30.69291964598365</v>
+        <v>9.231869908876341</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.1</v>
+        <v>28.4</v>
       </c>
       <c r="B206" t="n">
-        <v>33.6</v>
+        <v>11.6</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>29.64273259789313</v>
+        <v>-46.59667110211786</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>26.7</v>
+        <v>11.3</v>
       </c>
       <c r="B207" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>-29.62942981553407</v>
+        <v>-15.46368835653972</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.4</v>
+        <v>12.9</v>
       </c>
       <c r="B208" t="n">
-        <v>29.1</v>
+        <v>6.3</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>32.3322961452205</v>
+        <v>-27.77263253026542</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>24.9</v>
+        <v>2.1</v>
       </c>
       <c r="B209" t="n">
-        <v>36.8</v>
+        <v>8.4</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>1.454127647972374</v>
+        <v>-5.044354700660516</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2</v>
+        <v>21.8</v>
       </c>
       <c r="B210" t="n">
-        <v>18.1</v>
+        <v>16.1</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>11.22905354350493</v>
+        <v>-27.36974786892521</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="B211" t="n">
-        <v>10.6</v>
+        <v>36.7</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>-34.53589560206039</v>
+        <v>9.840972817937125</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="B212" t="n">
-        <v>10.8</v>
+        <v>26.6</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>-9.971171851903341</v>
+        <v>15.17669635692463</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>12.5</v>
+        <v>16.1</v>
       </c>
       <c r="B213" t="n">
-        <v>20.1</v>
+        <v>32.2</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>-4.16153930827277</v>
+        <v>9.501428436249526</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>12.3</v>
+        <v>7</v>
       </c>
       <c r="B214" t="n">
-        <v>7.5</v>
+        <v>28.9</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>-24.71237370591837</v>
+        <v>20.24036974983093</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>22.2</v>
+        <v>20.2</v>
       </c>
       <c r="B215" t="n">
-        <v>28.4</v>
+        <v>25.3</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>-7.673069587043281</v>
+        <v>-9.253248129545829</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="B216" t="n">
-        <v>36.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>22.14784001368594</v>
+        <v>-22.13100712363042</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>27.4</v>
+        <v>8.6</v>
       </c>
       <c r="B217" t="n">
-        <v>30.4</v>
+        <v>36.5</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>-13.61997301306846</v>
+        <v>30.00013672558921</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>26.7</v>
+        <v>5.9</v>
       </c>
       <c r="B218" t="n">
-        <v>25.2</v>
+        <v>37.7</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>-21.00106154656289</v>
+        <v>36.80223475636651</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B219" t="n">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>-17.52275914110135</v>
+        <v>-21.84358885024874</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>20</v>
+        <v>25.6</v>
       </c>
       <c r="B220" t="n">
-        <v>8.800000000000001</v>
+        <v>19.9</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>-36.27535872891982</v>
+        <v>-27.83534896166072</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>29.4</v>
+        <v>23</v>
       </c>
       <c r="B221" t="n">
-        <v>34</v>
+        <v>38.7</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>-11.21014367547252</v>
+        <v>7.992274237049838</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>9</v>
+        <v>24.9</v>
       </c>
       <c r="B222" t="n">
-        <v>24.6</v>
+        <v>37.4</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>9.541716524951422</v>
+        <v>2.449708602084439</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17.2</v>
+        <v>10.8</v>
       </c>
       <c r="B223" t="n">
-        <v>38.8</v>
+        <v>24.1</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>18.49280791859014</v>
+        <v>5.504774981489255</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>22.6</v>
+        <v>17.9</v>
       </c>
       <c r="B224" t="n">
-        <v>24</v>
+        <v>34.4</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>-15.68672786128034</v>
+        <v>9.944601186291628</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>10.1</v>
+        <v>3</v>
       </c>
       <c r="B225" t="n">
-        <v>10.1</v>
+        <v>37</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>-16.47816754564872</v>
+        <v>40.80802540449659</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>14.7</v>
+        <v>13.9</v>
       </c>
       <c r="B226" t="n">
-        <v>14</v>
+        <v>7.1</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>-18.20330103419611</v>
+        <v>-28.22701945165422</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="B227" t="n">
-        <v>33.1</v>
+        <v>12.5</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>37.36585713178317</v>
+        <v>-7.684907606647306</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>23.6</v>
+        <v>6.2</v>
       </c>
       <c r="B228" t="n">
-        <v>18.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>-26.09692432378973</v>
+        <v>-11.68612965809248</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>15.8</v>
+        <v>23.1</v>
       </c>
       <c r="B229" t="n">
-        <v>15.5</v>
+        <v>31.7</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>-17.674359661808</v>
+        <v>-3.801019713611348</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>11</v>
+        <v>7.3</v>
       </c>
       <c r="B230" t="n">
-        <v>10.9</v>
+        <v>34.5</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>-16.7543716476837</v>
+        <v>28.99791019681536</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgabe_5/Data/alle_ergebnisse.xlsx
+++ b/Aufgabe_5/Data/alle_ergebnisse.xlsx
@@ -863,2402 +863,2402 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>23.3</v>
       </c>
       <c r="B31" t="n">
-        <v>29.7</v>
+        <v>13</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>19.78598282844214</v>
+        <v>-35.18632508881151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.5</v>
+        <v>12.5</v>
       </c>
       <c r="B32" t="n">
-        <v>26.3</v>
+        <v>19.4</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>18.59892790565267</v>
+        <v>-5.323050421403511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.8</v>
+        <v>24.1</v>
       </c>
       <c r="B33" t="n">
-        <v>24.7</v>
+        <v>20.2</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>15.40949690329237</v>
+        <v>-24.66481619429737</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>19.1</v>
+        <v>16.3</v>
       </c>
       <c r="B34" t="n">
-        <v>17.8</v>
+        <v>16.5</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-19.73799904305454</v>
+        <v>-16.90597216839034</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19.3</v>
+        <v>11.8</v>
       </c>
       <c r="B35" t="n">
-        <v>36.7</v>
+        <v>26.6</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>11.26643537276769</v>
+        <v>7.871200763417953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>32.4</v>
+        <v>6.3</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-13.15229494235607</v>
+        <v>-6.56887702716069</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="B37" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>-54.93658260871892</v>
+        <v>-54.48780277300347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.9</v>
+        <v>0.6</v>
       </c>
       <c r="B38" t="n">
-        <v>25.1</v>
+        <v>8.4</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>6.985893752322198</v>
+        <v>-2.371612410353197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="B39" t="n">
-        <v>26.1</v>
+        <v>13.9</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>17.37615349084621</v>
+        <v>-23.35835013512178</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="B40" t="n">
-        <v>37.3</v>
+        <v>33.1</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>9.054725578510958</v>
+        <v>2.442024538434197</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.9</v>
+        <v>2.6</v>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>8.9</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>3.378833809578538</v>
+        <v>-5.105618002336239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="B42" t="n">
-        <v>20.7</v>
+        <v>39.1</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>-22.76606848308106</v>
+        <v>6.161435402171044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.2</v>
+        <v>22.4</v>
       </c>
       <c r="B43" t="n">
-        <v>22.9</v>
+        <v>18.4</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>15.27367915061734</v>
+        <v>-24.62245112761858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19.8</v>
+        <v>6.3</v>
       </c>
       <c r="B44" t="n">
-        <v>8.199999999999999</v>
+        <v>32.1</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>-36.91457404432424</v>
+        <v>26.79741457390534</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>27.9</v>
+        <v>22</v>
       </c>
       <c r="B45" t="n">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>-45.20796652829272</v>
+        <v>-29.05355477978227</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.3</v>
+        <v>10.8</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
+        <v>35.8</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>41.93277853662189</v>
+        <v>24.91860358667441</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.9</v>
+        <v>22.1</v>
       </c>
       <c r="B47" t="n">
-        <v>22.8</v>
+        <v>11.5</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>-3.957812679260217</v>
+        <v>-35.5370836418458</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.4</v>
+        <v>1.7</v>
       </c>
       <c r="B48" t="n">
-        <v>16.1</v>
+        <v>26.5</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>-21.31153201089529</v>
+        <v>25.70173535913523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.1</v>
+        <v>11.3</v>
       </c>
       <c r="B49" t="n">
-        <v>24.3</v>
+        <v>11.5</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>21.33854058330905</v>
+        <v>-16.2933391516331</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>13.8</v>
+        <v>3.4</v>
       </c>
       <c r="B50" t="n">
-        <v>22.4</v>
+        <v>35.8</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>-2.66152230244289</v>
+        <v>38.10413221885718</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>26.5</v>
       </c>
       <c r="B51" t="n">
-        <v>22.4</v>
+        <v>34.1</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>13.01856580069338</v>
+        <v>-5.876911755193033</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18.1</v>
+        <v>12.1</v>
       </c>
       <c r="B52" t="n">
-        <v>35.9</v>
+        <v>32.4</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>12.07718793286413</v>
+        <v>16.96060152843973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13.8</v>
+        <v>18.8</v>
       </c>
       <c r="B53" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>-18.09302709117981</v>
+        <v>-25.34286646868411</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.4</v>
+        <v>12.7</v>
       </c>
       <c r="B54" t="n">
-        <v>29.9</v>
+        <v>34.7</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>28.31425283675527</v>
+        <v>19.70789826974637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12.3</v>
+        <v>14.6</v>
       </c>
       <c r="B55" t="n">
-        <v>23.8</v>
+        <v>37</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>2.334242214125904</v>
+        <v>20.13881835945332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="B56" t="n">
-        <v>14.1</v>
+        <v>31.1</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>-9.484595546194011</v>
+        <v>21.2180909579345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27.3</v>
+        <v>25.4</v>
       </c>
       <c r="B57" t="n">
-        <v>7.8</v>
+        <v>38.2</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>-50.94200613193554</v>
+        <v>2.886235777464748</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="B58" t="n">
-        <v>20.6</v>
+        <v>23.7</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>9.497274480295747</v>
+        <v>13.39382967439797</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18.3</v>
+        <v>16.9</v>
       </c>
       <c r="B59" t="n">
-        <v>16.6</v>
+        <v>37.3</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>-20.30369839644808</v>
+        <v>16.53840399137146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21.5</v>
+        <v>23.7</v>
       </c>
       <c r="B60" t="n">
-        <v>18.1</v>
+        <v>30.2</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>-23.51659623049022</v>
+        <v>-7.35906901501442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="B61" t="n">
-        <v>7.3</v>
+        <v>24.8</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>-18.98601816592581</v>
+        <v>15.75360988166488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29.8</v>
+        <v>20.6</v>
       </c>
       <c r="B62" t="n">
-        <v>26.5</v>
+        <v>7.7</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>-24.36763687928855</v>
+        <v>-39.16968739424819</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="B63" t="n">
-        <v>15.5</v>
+        <v>29.1</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>-3.241551294148472</v>
+        <v>22.35405826140651</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>29.6</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
-        <v>30.8</v>
+        <v>22.9</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>-16.87627440277782</v>
+        <v>15.63004478932498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.6</v>
+        <v>20.1</v>
       </c>
       <c r="B65" t="n">
-        <v>14.7</v>
+        <v>35.8</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>-7.954466134020489</v>
+        <v>8.347601386769025</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.3</v>
+        <v>14.2</v>
       </c>
       <c r="B66" t="n">
-        <v>14.5</v>
+        <v>30.1</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>-4.188121606919953</v>
+        <v>9.402368664579924</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.3</v>
+        <v>12.7</v>
       </c>
       <c r="B67" t="n">
-        <v>14.3</v>
+        <v>32.3</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>4.389159042733759</v>
+        <v>15.72557445329812</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>19.7</v>
+        <v>14.4</v>
       </c>
       <c r="B68" t="n">
-        <v>20.5</v>
+        <v>37.2</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>-16.3269816656732</v>
+        <v>20.82704431619832</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.5</v>
+        <v>14.2</v>
       </c>
       <c r="B69" t="n">
-        <v>31.8</v>
+        <v>39.8</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>17.0341174904506</v>
+        <v>25.49759408939155</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>9.9</v>
+        <v>16.5</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>-3.446316412149475</v>
+        <v>-4.433174813622848</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.3</v>
+        <v>24.1</v>
       </c>
       <c r="B71" t="n">
-        <v>26.1</v>
+        <v>28.5</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>-8.103989676750238</v>
+        <v>-10.89261299574721</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>19.1</v>
+        <v>25.1</v>
       </c>
       <c r="B72" t="n">
-        <v>22.8</v>
+        <v>26</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>-11.44149109212071</v>
+        <v>-16.82269516475234</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.4</v>
+        <v>28.4</v>
       </c>
       <c r="B73" t="n">
-        <v>8.5</v>
+        <v>26.5</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>-14.32211396739437</v>
+        <v>-21.87307740833505</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.5</v>
+        <v>19.3</v>
       </c>
       <c r="B74" t="n">
-        <v>34</v>
+        <v>36.1</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>31.37555015009076</v>
+        <v>10.27085441865563</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17.8</v>
+        <v>6.6</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>-35.34207956547193</v>
+        <v>-16.54711491097468</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="B76" t="n">
-        <v>34.2</v>
+        <v>39.8</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>25.11464615203673</v>
+        <v>18.72664695394634</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13.6</v>
+        <v>29.2</v>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>38.4</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>-26.19909956242467</v>
+        <v>-3.552851039943118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24.3</v>
+        <v>9.4</v>
       </c>
       <c r="B78" t="n">
-        <v>19.4</v>
+        <v>20.8</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>-26.34862310515442</v>
+        <v>2.523639204826424</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="B79" t="n">
-        <v>12.5</v>
+        <v>36.4</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>-23.00863007107593</v>
+        <v>21.10324841823329</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>27.6</v>
+        <v>25.5</v>
       </c>
       <c r="B80" t="n">
-        <v>13.8</v>
+        <v>19.3</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>-41.52074504887641</v>
+        <v>-28.65274709641895</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.6</v>
+        <v>21.2</v>
       </c>
       <c r="B81" t="n">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>25.63486497178615</v>
+        <v>-3.900079485280946</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4.6</v>
+        <v>22.4</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>17.3</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>12.23792564694058</v>
+        <v>-26.44768287682402</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>17.2</v>
+        <v>0.2</v>
       </c>
       <c r="B83" t="n">
-        <v>8.800000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>-31.28623978701282</v>
+        <v>20.57576017556475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.6</v>
+        <v>29.4</v>
       </c>
       <c r="B84" t="n">
-        <v>26.8</v>
+        <v>16.3</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>12.12308310723938</v>
+        <v>-40.57978182177827</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>24.8</v>
+        <v>17.9</v>
       </c>
       <c r="B85" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>-6.664197483607632</v>
+        <v>10.60832182236633</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28</v>
+        <v>15.2</v>
       </c>
       <c r="B86" t="n">
-        <v>7.3</v>
+        <v>16.6</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>-53.01893666250567</v>
+        <v>-14.78003099647962</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>23.6</v>
+        <v>28.7</v>
       </c>
       <c r="B87" t="n">
-        <v>35.8</v>
+        <v>39.5</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>2.111202709385278</v>
+        <v>-0.8367051939685641</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>26.3</v>
+        <v>6</v>
       </c>
       <c r="B88" t="n">
-        <v>29.2</v>
+        <v>11.3</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>-13.65112390840054</v>
+        <v>-7.181510043917925</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>27.4</v>
+        <v>28.1</v>
       </c>
       <c r="B89" t="n">
-        <v>31.1</v>
+        <v>38.1</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>-12.45846189993772</v>
+        <v>-2.090630504107111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>28.5</v>
+        <v>25.5</v>
       </c>
       <c r="B90" t="n">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>-14.25254275381108</v>
+        <v>-5.920315310860259</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B91" t="n">
-        <v>25.4</v>
+        <v>7.8</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>16.21464237771547</v>
+        <v>-9.42540922249518</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>25.8</v>
+        <v>10</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>-49.59670511377763</v>
+        <v>-17.46149583942563</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.9</v>
+        <v>9.5</v>
       </c>
       <c r="B93" t="n">
-        <v>17.7</v>
+        <v>29.7</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>-5.292938015059871</v>
+        <v>17.11324053813481</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>24.1</v>
+        <v>3.9</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>29.2</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>4.870752111027059</v>
+        <v>26.26182762685542</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2</v>
+        <v>18.2</v>
       </c>
       <c r="B95" t="n">
-        <v>30.7</v>
+        <v>12.5</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>35.34354432822696</v>
+        <v>-26.92865209686</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.7</v>
+        <v>13.8</v>
       </c>
       <c r="B96" t="n">
-        <v>25.9</v>
+        <v>17.7</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>8.669700663179249</v>
+        <v>-10.46023977632069</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14.1</v>
+        <v>3.6</v>
       </c>
       <c r="B97" t="n">
-        <v>12.7</v>
+        <v>28.1</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>-19.29129618531598</v>
+        <v>24.97114433571145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="B98" t="n">
-        <v>18.8</v>
+        <v>29.2</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>-5.784082917454102</v>
+        <v>20.38179458817932</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>28.2</v>
+        <v>5.1</v>
       </c>
       <c r="B99" t="n">
-        <v>38.4</v>
+        <v>27.7</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>-1.7710228464049</v>
+        <v>21.63468140932942</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28.6</v>
+        <v>22</v>
       </c>
       <c r="B100" t="n">
-        <v>5.9</v>
+        <v>10.3</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>-56.41105580489008</v>
+        <v>-37.3500627307161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3</v>
+        <v>17.2</v>
       </c>
       <c r="B101" t="n">
-        <v>13.9</v>
+        <v>18.1</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>2.478158671182303</v>
+        <v>-15.8547349982759</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4.3</v>
+        <v>25</v>
       </c>
       <c r="B102" t="n">
-        <v>32.8</v>
+        <v>27.3</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>31.52258207411249</v>
+        <v>-14.48742027815572</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="B103" t="n">
-        <v>23.2</v>
+        <v>21.5</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>4.545952008382628</v>
+        <v>-2.194882720718942</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>18.9</v>
+        <v>18</v>
       </c>
       <c r="B104" t="n">
-        <v>32.6</v>
+        <v>24</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>5.176030130417242</v>
+        <v>-7.490318171004555</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="B105" t="n">
-        <v>15.9</v>
+        <v>32.2</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>-8.101498058042225</v>
+        <v>14.49054737815652</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22.5</v>
+        <v>16.1</v>
       </c>
       <c r="B106" t="n">
-        <v>15.7</v>
+        <v>24.9</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>-29.28074824047667</v>
+        <v>-2.61147317211387</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>24.5</v>
+        <v>15.2</v>
       </c>
       <c r="B107" t="n">
-        <v>7.1</v>
+        <v>30.9</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>-47.11439830315928</v>
+        <v>8.947981743191121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>28.4</v>
+        <v>19.6</v>
       </c>
       <c r="B108" t="n">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>-45.76702030702448</v>
+        <v>-31.74623379407497</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>26.1</v>
+        <v>13.4</v>
       </c>
       <c r="B109" t="n">
-        <v>10.1</v>
+        <v>34.6</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>-44.98741864226012</v>
+        <v>18.29468837525094</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>21.9</v>
+        <v>19.8</v>
       </c>
       <c r="B110" t="n">
-        <v>28.5</v>
+        <v>15.4</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>-6.972590969963136</v>
+        <v>-24.96760259497952</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6</v>
+        <v>17.7</v>
       </c>
       <c r="B111" t="n">
-        <v>13.1</v>
+        <v>17.7</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>-4.194767181581748</v>
+        <v>-17.40936973111971</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>18.3</v>
+        <v>11.6</v>
       </c>
       <c r="B112" t="n">
-        <v>22.3</v>
+        <v>38.4</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>-10.84567933238352</v>
+        <v>27.80732516632943</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B113" t="n">
-        <v>23</v>
+        <v>12.2</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>-0.775027251561724</v>
+        <v>-12.45908574819505</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>28.1</v>
+        <v>27.6</v>
       </c>
       <c r="B114" t="n">
-        <v>21.8</v>
+        <v>18.4</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>-29.13724642415139</v>
+        <v>-33.88795773401729</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>14.7</v>
+        <v>26.3</v>
       </c>
       <c r="B115" t="n">
-        <v>22.7</v>
+        <v>33.8</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>-3.767377199571248</v>
+        <v>-6.018336593541425</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>17.8</v>
+        <v>21.4</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>24</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>-36.17173036056531</v>
+        <v>-13.54853402903448</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>17</v>
+        <v>12.9</v>
       </c>
       <c r="B117" t="n">
-        <v>6.6</v>
+        <v>36.6</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>-34.58033764671607</v>
+        <v>22.50420565239358</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>24.5</v>
+        <v>19.6</v>
       </c>
       <c r="B118" t="n">
-        <v>35.7</v>
+        <v>30.2</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>0.3416271761822234</v>
+        <v>-0.05357342150774969</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>13.6</v>
+        <v>3.7</v>
       </c>
       <c r="B119" t="n">
-        <v>39.7</v>
+        <v>24.9</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>26.40076084649581</v>
+        <v>19.48319642775997</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>22.8</v>
+        <v>9.9</v>
       </c>
       <c r="B120" t="n">
-        <v>29.4</v>
+        <v>6.9</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>-7.082864912979446</v>
+        <v>-21.43156699553872</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8</v>
+        <v>13.4</v>
       </c>
       <c r="B121" t="n">
-        <v>16.1</v>
+        <v>18.8</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>10.04864419537726</v>
+        <v>-7.922276749699959</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>24.3</v>
+        <v>6.5</v>
       </c>
       <c r="B122" t="n">
-        <v>10.7</v>
+        <v>37.1</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>-40.78454693977928</v>
+        <v>34.73755688613152</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>12.5</v>
+        <v>26.8</v>
       </c>
       <c r="B123" t="n">
-        <v>9.199999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>-22.24792664130852</v>
+        <v>-35.28330788250422</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21.7</v>
+        <v>2</v>
       </c>
       <c r="B124" t="n">
-        <v>23.8</v>
+        <v>10.9</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>-14.4149428051333</v>
+        <v>-0.71791790583978</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3</v>
+        <v>11.7</v>
       </c>
       <c r="B125" t="n">
-        <v>11.2</v>
+        <v>22.8</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>2.808980500231208</v>
+        <v>1.74403754006207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.2</v>
+        <v>19.5</v>
       </c>
       <c r="B126" t="n">
-        <v>13.7</v>
+        <v>27.2</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>1.789932714437306</v>
+        <v>-4.853295372714225</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>24.7</v>
+        <v>8.1</v>
       </c>
       <c r="B127" t="n">
-        <v>23.8</v>
+        <v>11.2</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>-19.76042738574793</v>
+        <v>-11.08927940936685</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>26.9</v>
+        <v>17.7</v>
       </c>
       <c r="B128" t="n">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>-46.08102087905333</v>
+        <v>-26.36959831812825</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.9</v>
+        <v>23</v>
       </c>
       <c r="B129" t="n">
-        <v>29.1</v>
+        <v>13.8</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>10.05944372599284</v>
+        <v>-33.32433535860063</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>25.8</v>
+        <v>7.1</v>
       </c>
       <c r="B130" t="n">
-        <v>29.9</v>
+        <v>10.9</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>-11.5986986985007</v>
+        <v>-9.805241692884664</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.4</v>
+        <v>18</v>
       </c>
       <c r="B131" t="n">
-        <v>36.3</v>
+        <v>15.1</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>38.93378301395056</v>
+        <v>-22.25810232366677</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>16.2</v>
+        <v>23.3</v>
       </c>
       <c r="B132" t="n">
-        <v>21.5</v>
+        <v>8.6</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>-8.431281398102684</v>
+        <v>-42.48725208563327</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="B133" t="n">
-        <v>24.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>12.9762007340146</v>
+        <v>-0.7490688011718678</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.9</v>
+        <v>13.2</v>
       </c>
       <c r="B134" t="n">
-        <v>35.6</v>
+        <v>25.4</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>42.22684238466537</v>
+        <v>3.385479384240337</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.9</v>
+        <v>23.8</v>
       </c>
       <c r="B135" t="n">
-        <v>17.7</v>
+        <v>28.5</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>-3.511109821521657</v>
+        <v>-10.35806453768575</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>25.6</v>
+        <v>4.7</v>
       </c>
       <c r="B136" t="n">
-        <v>26</v>
+        <v>29.4</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>-17.71360926152145</v>
+        <v>25.1682253900622</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24.2</v>
+        <v>18.8</v>
       </c>
       <c r="B137" t="n">
-        <v>8.1</v>
+        <v>31.3</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>-44.92054825491105</v>
+        <v>3.19712088252826</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="B138" t="n">
-        <v>5.8</v>
+        <v>33.6</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>-24.68226129957474</v>
+        <v>22.15905418503263</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>26.1</v>
+        <v>12.6</v>
       </c>
       <c r="B139" t="n">
-        <v>11.7</v>
+        <v>16.2</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>-42.3325360979613</v>
+        <v>-10.81099832935498</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>24.8</v>
+        <v>5.7</v>
       </c>
       <c r="B140" t="n">
-        <v>30.5</v>
+        <v>16.2</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>-8.821289550850429</v>
+        <v>1.483616206058688</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.9</v>
+        <v>13.5</v>
       </c>
       <c r="B141" t="n">
-        <v>36.1</v>
+        <v>21.9</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>32.36552401852947</v>
+        <v>-2.956624639474807</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24.7</v>
+        <v>22.5</v>
       </c>
       <c r="B142" t="n">
-        <v>31</v>
+        <v>29.4</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>-7.813455936403224</v>
+        <v>-6.54831645491798</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>22.2</v>
+        <v>19.4</v>
       </c>
       <c r="B143" t="n">
-        <v>13.1</v>
+        <v>20.4</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>-33.06038391690079</v>
+        <v>-15.95836336663041</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>29.5</v>
+        <v>6.4</v>
       </c>
       <c r="B144" t="n">
-        <v>23.9</v>
+        <v>29.8</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>-28.14727255571268</v>
+        <v>22.80283809712195</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145" t="n">
-        <v>25.7</v>
+        <v>5.6</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>-1.10584908061063</v>
+        <v>-32.6759828498264</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B146" t="n">
-        <v>21.9</v>
+        <v>34.3</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-3.847538736243916</v>
+        <v>-9.999621921001216</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11.7</v>
+        <v>22.9</v>
       </c>
       <c r="B147" t="n">
-        <v>19</v>
+        <v>38.7</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>-4.561308502647641</v>
+        <v>8.170457056403659</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11.4</v>
+        <v>24.6</v>
       </c>
       <c r="B148" t="n">
-        <v>30.2</v>
+        <v>25.9</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>14.55741776550559</v>
+        <v>-16.09771122700191</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>24</v>
+        <v>14.1</v>
       </c>
       <c r="B149" t="n">
-        <v>16.1</v>
+        <v>37.2</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>-31.28976989470928</v>
+        <v>21.36159277425978</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>13.1</v>
+        <v>4.9</v>
       </c>
       <c r="B150" t="n">
-        <v>27.3</v>
+        <v>18.6</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>6.716335224949013</v>
+        <v>6.891402577337498</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>17.8</v>
+        <v>4.6</v>
       </c>
       <c r="B151" t="n">
-        <v>35.4</v>
+        <v>31.6</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>11.78208559583221</v>
+        <v>28.99687170782691</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>28.9</v>
+        <v>4.9</v>
       </c>
       <c r="B152" t="n">
-        <v>28</v>
+        <v>7.3</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>-20.27503911982401</v>
+        <v>-11.85870539177295</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>24.2</v>
+        <v>28.6</v>
       </c>
       <c r="B153" t="n">
-        <v>34.4</v>
+        <v>13.9</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>-1.280916432999115</v>
+        <v>-43.13664308339595</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22.2</v>
+        <v>10.6</v>
       </c>
       <c r="B154" t="n">
-        <v>17.9</v>
+        <v>37.4</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>-25.09573628400432</v>
+        <v>27.92985176968087</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.8</v>
+        <v>29.2</v>
       </c>
       <c r="B155" t="n">
-        <v>20.3</v>
+        <v>5.8</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>17.01771087416167</v>
+        <v>-57.64608288003168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B156" t="n">
-        <v>18.2</v>
+        <v>37.4</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>0.3476489025866876</v>
+        <v>32.02805661481877</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>26</v>
+        <v>6.3</v>
       </c>
       <c r="B157" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>-1.999254796087751</v>
+        <v>32.93683045759636</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.2</v>
+        <v>3.3</v>
       </c>
       <c r="B158" t="n">
-        <v>39.6</v>
+        <v>28.4</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>32.29304654550705</v>
+        <v>26.00348327082894</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>19.4</v>
+        <v>9.6</v>
       </c>
       <c r="B159" t="n">
-        <v>32.1</v>
+        <v>25.7</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>3.455465238554751</v>
+        <v>10.29785135803393</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22.4</v>
+        <v>4.5</v>
       </c>
       <c r="B160" t="n">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>-34.91012098677653</v>
+        <v>-5.504348707722666</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.1</v>
+        <v>10.9</v>
       </c>
       <c r="B161" t="n">
-        <v>17.4</v>
+        <v>32</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>9.889359611020371</v>
+        <v>18.43507472461088</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="B162" t="n">
-        <v>7.3</v>
+        <v>38.2</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>-10.78960847565003</v>
+        <v>39.05734810629047</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>14.2</v>
+        <v>28.8</v>
       </c>
       <c r="B163" t="n">
-        <v>36.8</v>
+        <v>26.3</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>20.51968931883125</v>
+        <v>-22.91766900378769</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11.8</v>
+        <v>19.7</v>
       </c>
       <c r="B164" t="n">
-        <v>23.6</v>
+        <v>13.3</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>2.893295992857656</v>
+        <v>-28.27395311501791</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>26.2</v>
+        <v>1.4</v>
       </c>
       <c r="B165" t="n">
-        <v>33.4</v>
+        <v>17.4</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>-6.503874410262307</v>
+        <v>11.13663934649712</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7.2</v>
+        <v>28.5</v>
       </c>
       <c r="B166" t="n">
-        <v>38.1</v>
+        <v>29.1</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>35.14957874084154</v>
+        <v>-17.73707609320328</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>28.7</v>
+        <v>7.1</v>
       </c>
       <c r="B167" t="n">
-        <v>26.4</v>
+        <v>22.7</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>-22.5735560254152</v>
+        <v>9.774517071319167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3.1</v>
+        <v>17.2</v>
       </c>
       <c r="B168" t="n">
-        <v>11.8</v>
+        <v>37.1</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>-1.184557487563726</v>
+        <v>15.67199521527265</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="B169" t="n">
-        <v>18.3</v>
+        <v>24</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>10.49181694541936</v>
+        <v>12.82252323533107</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="B170" t="n">
-        <v>37</v>
+        <v>31.9</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>42.41167077868098</v>
+        <v>28.42556526876001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>23.1</v>
+        <v>27.2</v>
       </c>
       <c r="B171" t="n">
-        <v>16.1</v>
+        <v>38.6</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>-29.68612452052489</v>
+        <v>0.3426656651706672</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>14.4</v>
+        <v>11.3</v>
       </c>
       <c r="B172" t="n">
-        <v>15.8</v>
+        <v>7.2</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-14.68200971379847</v>
+        <v>-23.4283359894362</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>26.3</v>
+        <v>11.5</v>
       </c>
       <c r="B173" t="n">
-        <v>39</v>
+        <v>37.4</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>2.610031675429759</v>
+        <v>26.32620639549648</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.7</v>
+        <v>4.2</v>
       </c>
       <c r="B174" t="n">
-        <v>34.4</v>
+        <v>14.8</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>22.77376417976676</v>
+        <v>1.833336270104539</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>29.9</v>
+        <v>9.4</v>
       </c>
       <c r="B175" t="n">
-        <v>9.1</v>
+        <v>37.5</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>-53.41766736789209</v>
+        <v>30.23397576094541</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>29.3</v>
+        <v>26.8</v>
       </c>
       <c r="B176" t="n">
-        <v>31.3</v>
+        <v>16.1</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>-15.51207514962297</v>
+        <v>-36.27888883661628</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.9</v>
+        <v>17.7</v>
       </c>
       <c r="B177" t="n">
-        <v>12.7</v>
+        <v>19.7</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-10.02578957891727</v>
+        <v>-14.09076655074618</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>28.6</v>
+        <v>4.3</v>
       </c>
       <c r="B178" t="n">
-        <v>13.5</v>
+        <v>23.2</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>-43.80036371947065</v>
+        <v>15.59328680831954</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21.2</v>
+        <v>18.1</v>
       </c>
       <c r="B179" t="n">
-        <v>26.2</v>
+        <v>18.6</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>-9.541704891915952</v>
+        <v>-16.62872957736691</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>26.6</v>
+        <v>7</v>
       </c>
       <c r="B180" t="n">
-        <v>18.2</v>
+        <v>31.8</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>-32.43798985851643</v>
+        <v>25.05234436137255</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>16.8</v>
+        <v>20.1</v>
       </c>
       <c r="B181" t="n">
-        <v>5.4</v>
+        <v>34.2</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>-36.21513391623255</v>
+        <v>5.69271884247021</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>25.7</v>
+        <v>0.5</v>
       </c>
       <c r="B182" t="n">
-        <v>22.6</v>
+        <v>38.7</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>-23.53341748751026</v>
+        <v>48.08340859165963</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>21.3</v>
+        <v>25.2</v>
       </c>
       <c r="B183" t="n">
-        <v>37.4</v>
+        <v>29.6</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>8.864290098822</v>
+        <v>-11.0273922594338</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.3</v>
+        <v>10.6</v>
       </c>
       <c r="B184" t="n">
-        <v>18.1</v>
+        <v>37.7</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>14.25816147251989</v>
+        <v>28.42764224673691</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>13.5</v>
+        <v>26.2</v>
       </c>
       <c r="B185" t="n">
-        <v>27.7</v>
+        <v>14.6</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>6.667324583608433</v>
+        <v>-37.6987443057735</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>18.3</v>
+        <v>24.7</v>
       </c>
       <c r="B186" t="n">
-        <v>27.2</v>
+        <v>34.2</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>-2.715101540468371</v>
+        <v>-2.503690847805569</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12.1</v>
+        <v>3.6</v>
       </c>
       <c r="B187" t="n">
-        <v>37.3</v>
+        <v>14.5</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>25.09117932035488</v>
+        <v>2.404642709171434</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>13.9</v>
+        <v>3.7</v>
       </c>
       <c r="B188" t="n">
-        <v>12.9</v>
+        <v>10.1</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>-18.60307022857098</v>
+        <v>-5.074467107004157</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>28.2</v>
+        <v>19</v>
       </c>
       <c r="B189" t="n">
-        <v>16.4</v>
+        <v>27.5</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-38.27565783051374</v>
+        <v>-3.464590798889093</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>22.5</v>
+        <v>28.5</v>
       </c>
       <c r="B190" t="n">
-        <v>34.1</v>
+        <v>30.3</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>1.250401018959824</v>
+        <v>-15.74591418497916</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>4.8</v>
+        <v>18.2</v>
       </c>
       <c r="B191" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>41.9149187906134</v>
+        <v>18.70214163327605</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28.7</v>
+        <v>25.4</v>
       </c>
       <c r="B192" t="n">
-        <v>6.7</v>
+        <v>9.6</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>-55.26179735209448</v>
+        <v>-44.56978970187676</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>28.3</v>
+        <v>23</v>
       </c>
       <c r="B193" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>-38.28791049084889</v>
+        <v>-37.14072901603019</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>23</v>
+        <v>21.2</v>
       </c>
       <c r="B194" t="n">
-        <v>33.9</v>
+        <v>19.7</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>0.02762660415335638</v>
+        <v>-20.32716522812993</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>23.3</v>
+        <v>29.9</v>
       </c>
       <c r="B195" t="n">
-        <v>12.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>-36.6796965199796</v>
+        <v>-54.0813880039668</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="B196" t="n">
-        <v>19.2</v>
+        <v>26.1</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>14.83611348624859</v>
+        <v>21.47435833598409</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>18.3</v>
+        <v>20.4</v>
       </c>
       <c r="B197" t="n">
-        <v>8.6</v>
+        <v>35</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>-33.57811111794221</v>
+        <v>6.485611656558159</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.6</v>
+        <v>22.5</v>
       </c>
       <c r="B198" t="n">
-        <v>21.7</v>
+        <v>31.5</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>3.66064499728687</v>
+        <v>-3.063783115525769</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>16.5</v>
+        <v>13.3</v>
       </c>
       <c r="B199" t="n">
-        <v>33.3</v>
+        <v>10.5</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>10.61392890803968</v>
+        <v>-21.51629712889629</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
       <c r="B200" t="n">
-        <v>6.5</v>
+        <v>32.4</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>-30.11351450253539</v>
+        <v>9.655105934933058</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.5</v>
+        <v>11.8</v>
       </c>
       <c r="B201" t="n">
-        <v>10.3</v>
+        <v>5.4</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>-2.604412956720946</v>
+        <v>-27.30599294854148</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>16.9</v>
+        <v>8.4</v>
       </c>
       <c r="B202" t="n">
-        <v>10.5</v>
+        <v>35.9</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>-27.93087862563385</v>
+        <v>29.36092141018479</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>12.6</v>
+        <v>17.3</v>
       </c>
       <c r="B203" t="n">
-        <v>12.4</v>
+        <v>32.3</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>-17.11634437206468</v>
+        <v>7.52916476302234</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>15.5</v>
+        <v>19.3</v>
       </c>
       <c r="B204" t="n">
-        <v>33.4</v>
+        <v>19.9</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>12.56168726059657</v>
+        <v>-16.60983134236998</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>18.3</v>
+        <v>24</v>
       </c>
       <c r="B205" t="n">
-        <v>34.4</v>
+        <v>26.9</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>9.231869908876341</v>
+        <v>-13.36931272069221</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28.4</v>
+        <v>11.6</v>
       </c>
       <c r="B206" t="n">
-        <v>11.6</v>
+        <v>23.1</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>-46.59667110211786</v>
+        <v>2.420010836471917</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>11.3</v>
+        <v>15.3</v>
       </c>
       <c r="B207" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>-15.46368835653972</v>
+        <v>-32.21495035377581</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>12.9</v>
+        <v>26.6</v>
       </c>
       <c r="B208" t="n">
-        <v>6.3</v>
+        <v>38.3</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>-27.77263253026542</v>
+        <v>0.9139721042375548</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="B209" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>-5.044354700660516</v>
+        <v>-14.08370633535327</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="B210" t="n">
         <v>16.1</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>-27.36974786892521</v>
+        <v>-17.39150998511122</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.1</v>
+        <v>28.9</v>
       </c>
       <c r="B211" t="n">
-        <v>36.7</v>
+        <v>27.6</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>9.840972817937125</v>
+        <v>-20.93875975589872</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="B212" t="n">
-        <v>26.6</v>
+        <v>17.8</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>15.17669635692463</v>
+        <v>13.40400535675622</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>16.1</v>
+        <v>2.3</v>
       </c>
       <c r="B213" t="n">
-        <v>32.2</v>
+        <v>31.1</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>9.501428436249526</v>
+        <v>32.26542575787142</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>7</v>
+        <v>24.4</v>
       </c>
       <c r="B214" t="n">
-        <v>28.9</v>
+        <v>33.6</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>20.24036974983093</v>
+        <v>-2.964723343856166</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.2</v>
+        <v>17.9</v>
       </c>
       <c r="B215" t="n">
-        <v>25.3</v>
+        <v>5.5</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>-9.253248129545829</v>
+        <v>-38.0092147701059</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>12.9</v>
+        <v>7.4</v>
       </c>
       <c r="B216" t="n">
-        <v>9.699999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>-22.13100712363042</v>
+        <v>-9.676069514871424</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="B217" t="n">
-        <v>36.5</v>
+        <v>29.4</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>30.00013672558921</v>
+        <v>21.24820336427814</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>5.9</v>
+        <v>29.1</v>
       </c>
       <c r="B218" t="n">
-        <v>37.7</v>
+        <v>23.9</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>36.80223475636651</v>
+        <v>-27.4345412782974</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="B219" t="n">
-        <v>5.9</v>
+        <v>17.4</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>-21.84358885024874</v>
+        <v>2.762046836867519</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>25.6</v>
+        <v>16.9</v>
       </c>
       <c r="B220" t="n">
-        <v>19.9</v>
+        <v>37.6</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>-27.83534896166072</v>
+        <v>17.0361944684275</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>23</v>
+        <v>15.7</v>
       </c>
       <c r="B221" t="n">
-        <v>38.7</v>
+        <v>8.1</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>7.992274237049838</v>
+        <v>-29.77500860983624</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>24.9</v>
+        <v>6.3</v>
       </c>
       <c r="B222" t="n">
-        <v>37.4</v>
+        <v>27.7</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>2.449708602084439</v>
+        <v>19.49648757708356</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="B223" t="n">
-        <v>24.1</v>
+        <v>12.3</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>5.504774981489255</v>
+        <v>-18.52955426656012</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>17.9</v>
+        <v>10.2</v>
       </c>
       <c r="B224" t="n">
-        <v>34.4</v>
+        <v>19.9</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>9.944601186291628</v>
+        <v>-0.3951947811722363</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3</v>
+        <v>24.2</v>
       </c>
       <c r="B225" t="n">
-        <v>37</v>
+        <v>10.3</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>40.80802540449659</v>
+        <v>-41.27008475650016</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>13.9</v>
+        <v>10.1</v>
       </c>
       <c r="B226" t="n">
-        <v>7.1</v>
+        <v>27.7</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>-28.22701945165422</v>
+        <v>12.72554044163835</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>7.4</v>
+        <v>23.8</v>
       </c>
       <c r="B227" t="n">
-        <v>12.5</v>
+        <v>36.4</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>-7.684907606647306</v>
+        <v>2.750418024789695</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="B228" t="n">
-        <v>8.800000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>-11.68612965809248</v>
+        <v>39.39481551000116</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>23.1</v>
+        <v>26.6</v>
       </c>
       <c r="B229" t="n">
-        <v>31.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>-3.801019713611348</v>
+        <v>-48.8650756013654</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>7.3</v>
+        <v>23.4</v>
       </c>
       <c r="B230" t="n">
-        <v>34.5</v>
+        <v>12.3</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>28.99791019681536</v>
+        <v>-36.52601902129607</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgabe_5/Data/alle_ergebnisse.xlsx
+++ b/Aufgabe_5/Data/alle_ergebnisse.xlsx
@@ -863,950 +863,950 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23.3</v>
+        <v>18.6</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>26.4</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>-35.18632508881151</v>
+        <v>-4.577091270679251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.5</v>
+        <v>28.6</v>
       </c>
       <c r="B32" t="n">
-        <v>19.4</v>
+        <v>10.2</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>-5.323050421403511</v>
+        <v>-49.27605896708698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>24.1</v>
+        <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>20.2</v>
+        <v>32.2</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>-24.66481619429737</v>
+        <v>9.679611255603351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16.3</v>
+        <v>28.4</v>
       </c>
       <c r="B34" t="n">
-        <v>16.5</v>
+        <v>21.8</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>-16.90597216839034</v>
+        <v>-29.67179488221285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11.8</v>
+        <v>29</v>
       </c>
       <c r="B35" t="n">
-        <v>26.6</v>
+        <v>18.3</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>7.871200763417953</v>
+        <v>-36.54844736398946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>17.3</v>
       </c>
       <c r="B36" t="n">
-        <v>6.3</v>
+        <v>11.1</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>-6.56887702716069</v>
+        <v>-27.64802894893709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>6.2</v>
+        <v>39.1</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>-54.48780277300347</v>
+        <v>32.35430984718278</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6</v>
+        <v>24.3</v>
       </c>
       <c r="B38" t="n">
-        <v>8.4</v>
+        <v>17.4</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>-2.371612410353197</v>
+        <v>-29.66722628552795</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17.5</v>
+        <v>26.1</v>
       </c>
       <c r="B39" t="n">
-        <v>13.9</v>
+        <v>20.4</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>-23.35835013512178</v>
+        <v>-27.89661226333644</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20.9</v>
+        <v>19.3</v>
       </c>
       <c r="B40" t="n">
-        <v>33.1</v>
+        <v>23.9</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>2.442024538434197</v>
+        <v>-9.972624981622916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="B41" t="n">
-        <v>8.9</v>
+        <v>25.5</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>-5.105618002336239</v>
+        <v>13.35146460771918</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>24.4</v>
+        <v>10.9</v>
       </c>
       <c r="B42" t="n">
-        <v>39.1</v>
+        <v>28.6</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>6.161435402171044</v>
+        <v>12.79344931797588</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
       <c r="B43" t="n">
-        <v>18.4</v>
+        <v>17.1</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>-24.62245112761858</v>
+        <v>-25.3540806400308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.3</v>
+        <v>25.7</v>
       </c>
       <c r="B44" t="n">
-        <v>32.1</v>
+        <v>22.1</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>26.79741457390534</v>
+        <v>-24.36306828260365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>26.6</v>
       </c>
       <c r="B45" t="n">
-        <v>15.3</v>
+        <v>38.4</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>-29.05355477978227</v>
+        <v>1.079902263256233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.8</v>
+        <v>12.5</v>
       </c>
       <c r="B46" t="n">
-        <v>35.8</v>
+        <v>16.5</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>24.91860358667441</v>
+        <v>-10.13502503294513</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="B47" t="n">
-        <v>11.5</v>
+        <v>33.4</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>-35.5370836418458</v>
+        <v>-0.8020241909400259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.7</v>
+        <v>21.1</v>
       </c>
       <c r="B48" t="n">
-        <v>26.5</v>
+        <v>16.3</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>25.70173535913523</v>
+        <v>-25.79060781541111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
       <c r="B49" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>-16.2933391516331</v>
+        <v>30.02817215395596</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="B50" t="n">
-        <v>35.8</v>
+        <v>28.3</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>38.10413221885718</v>
+        <v>22.09571390538002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26.5</v>
+        <v>6.2</v>
       </c>
       <c r="B51" t="n">
-        <v>34.1</v>
+        <v>31.4</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>-5.876911755193033</v>
+        <v>25.81408628012841</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>12.1</v>
+        <v>1.3</v>
       </c>
       <c r="B52" t="n">
-        <v>32.4</v>
+        <v>33.5</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>16.96060152843973</v>
+        <v>38.02957776785787</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18.8</v>
+        <v>0.5</v>
       </c>
       <c r="B53" t="n">
-        <v>14.1</v>
+        <v>28.4</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>-25.34286646868411</v>
+        <v>30.99260221273593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12.7</v>
+        <v>27.8</v>
       </c>
       <c r="B54" t="n">
-        <v>34.7</v>
+        <v>22</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>19.70789826974637</v>
+        <v>-28.27083764805257</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14.6</v>
+        <v>18.1</v>
       </c>
       <c r="B55" t="n">
-        <v>37</v>
+        <v>6.8</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>20.13881835945332</v>
+        <v>-36.20848834157074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8.5</v>
+        <v>13.7</v>
       </c>
       <c r="B56" t="n">
-        <v>31.1</v>
+        <v>35.3</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>21.2180909579345</v>
+        <v>18.92165103032021</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25.4</v>
+        <v>7.6</v>
       </c>
       <c r="B57" t="n">
-        <v>38.2</v>
+        <v>31.5</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>2.886235777464748</v>
+        <v>23.4854569681936</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>12.3</v>
       </c>
       <c r="B58" t="n">
-        <v>23.7</v>
+        <v>36.8</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>13.39382967439797</v>
+        <v>23.90516288655385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16.9</v>
+        <v>18.6</v>
       </c>
       <c r="B59" t="n">
-        <v>37.3</v>
+        <v>27.1</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>16.53840399137146</v>
+        <v>-3.41558015754851</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>23.7</v>
+        <v>6.4</v>
       </c>
       <c r="B60" t="n">
-        <v>30.2</v>
+        <v>7.8</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>-7.35906901501442</v>
+        <v>-13.70179688698689</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.7</v>
+        <v>17.9</v>
       </c>
       <c r="B61" t="n">
-        <v>24.8</v>
+        <v>31.1</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>15.75360988166488</v>
+        <v>4.468905938675306</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="B62" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>-39.16968739424819</v>
+        <v>-39.85791335099319</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>24.3</v>
       </c>
       <c r="B63" t="n">
-        <v>29.1</v>
+        <v>35.2</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>22.35405826140651</v>
+        <v>-0.1316579802035172</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4</v>
+        <v>26.2</v>
       </c>
       <c r="B64" t="n">
-        <v>22.9</v>
+        <v>34.3</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>15.63004478932498</v>
+        <v>-5.010502979094221</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20.1</v>
+        <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>35.8</v>
+        <v>24.5</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>8.347601386769025</v>
+        <v>-3.097010988834748</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14.2</v>
+        <v>0.8</v>
       </c>
       <c r="B66" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>9.402368664579924</v>
+        <v>33.61072677602933</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12.7</v>
+        <v>6.4</v>
       </c>
       <c r="B67" t="n">
-        <v>32.3</v>
+        <v>30.2</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>15.72557445329812</v>
+        <v>23.46655873319666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>14.4</v>
+        <v>21.5</v>
       </c>
       <c r="B68" t="n">
-        <v>37.2</v>
+        <v>36.1</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>20.82704431619832</v>
+        <v>6.350832392871563</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="B69" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>25.49759408939155</v>
+        <v>22.37607196336878</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.300000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="B70" t="n">
-        <v>16.5</v>
+        <v>39.1</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>-4.433174813622848</v>
+        <v>6.695983860232502</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>24.1</v>
+        <v>28.3</v>
       </c>
       <c r="B71" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>-10.89261299574721</v>
+        <v>-18.54222156762638</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25.1</v>
+        <v>16.9</v>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>21.1</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>-16.82269516475234</v>
+        <v>-10.34228176965414</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28.4</v>
+        <v>8.6</v>
       </c>
       <c r="B73" t="n">
-        <v>26.5</v>
+        <v>21.7</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>-21.87307740833505</v>
+        <v>5.442473190825083</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>19.3</v>
+        <v>28.7</v>
       </c>
       <c r="B74" t="n">
-        <v>36.1</v>
+        <v>39.1</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>10.27085441865563</v>
+        <v>-1.500425830043268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.6</v>
+        <v>10.9</v>
       </c>
       <c r="B75" t="n">
-        <v>6.3</v>
+        <v>32.9</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>-16.54711491097468</v>
+        <v>19.92844615577896</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18</v>
+        <v>12.7</v>
       </c>
       <c r="B76" t="n">
-        <v>39.8</v>
+        <v>12.2</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>18.72664695394634</v>
+        <v>-17.62638750945586</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>29.2</v>
+        <v>26.6</v>
       </c>
       <c r="B77" t="n">
-        <v>38.4</v>
+        <v>23.7</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>-3.552851039943118</v>
+        <v>-23.31183111248922</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="B78" t="n">
-        <v>20.8</v>
+        <v>31.6</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>2.523639204826424</v>
+        <v>21.86955893367406</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>13.5</v>
+        <v>19.7</v>
       </c>
       <c r="B79" t="n">
-        <v>36.4</v>
+        <v>16.6</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>21.10324841823329</v>
+        <v>-22.79825786740158</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>25.5</v>
+        <v>1.7</v>
       </c>
       <c r="B80" t="n">
-        <v>19.3</v>
+        <v>32.7</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>-28.65274709641895</v>
+        <v>35.98940521829318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>21.2</v>
+        <v>9.4</v>
       </c>
       <c r="B81" t="n">
-        <v>29.6</v>
+        <v>19.7</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>-3.900079485280946</v>
+        <v>0.6984074556209787</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>22.4</v>
+        <v>10.1</v>
       </c>
       <c r="B82" t="n">
-        <v>17.3</v>
+        <v>20</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>-26.44768287682402</v>
+        <v>-0.05108180279973951</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.2</v>
+        <v>9.9</v>
       </c>
       <c r="B83" t="n">
-        <v>21.8</v>
+        <v>13.4</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>20.57576017556475</v>
+        <v>-10.64610665932475</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>29.4</v>
+        <v>7.7</v>
       </c>
       <c r="B84" t="n">
-        <v>16.3</v>
+        <v>18.9</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>-40.57978182177827</v>
+        <v>2.400074112486529</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>17.9</v>
+        <v>16.9</v>
       </c>
       <c r="B85" t="n">
-        <v>34.8</v>
+        <v>29</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>10.60832182236633</v>
+        <v>2.766200792821309</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15.2</v>
+        <v>4.6</v>
       </c>
       <c r="B86" t="n">
-        <v>16.6</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>-14.78003099647962</v>
+        <v>-4.023229936889724</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>28.7</v>
+        <v>21.5</v>
       </c>
       <c r="B87" t="n">
-        <v>39.5</v>
+        <v>23</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>-0.8367051939685641</v>
+        <v>-15.38601843857507</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
-        <v>11.3</v>
+        <v>30.2</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>-7.181510043917925</v>
+        <v>25.96111820415015</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28.1</v>
+        <v>15.7</v>
       </c>
       <c r="B89" t="n">
-        <v>38.1</v>
+        <v>31.8</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>-2.090630504107111</v>
+        <v>9.550439077590106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>25.5</v>
+        <v>13.8</v>
       </c>
       <c r="B90" t="n">
-        <v>33</v>
+        <v>26.8</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>-5.920315310860259</v>
+        <v>4.639404694378882</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>23.9</v>
       </c>
       <c r="B91" t="n">
-        <v>7.8</v>
+        <v>31.4</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>-9.42540922249518</v>
+        <v>-5.724272745497947</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="B92" t="n">
-        <v>9.4</v>
+        <v>11.6</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>-17.46149583942563</v>
+        <v>-14.88012925713767</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.5</v>
+        <v>14.2</v>
       </c>
       <c r="B93" t="n">
-        <v>29.7</v>
+        <v>15.9</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>17.11324053813481</v>
+        <v>-14.15971391607215</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3.9</v>
+        <v>13.8</v>
       </c>
       <c r="B94" t="n">
-        <v>29.2</v>
+        <v>24.2</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>26.26182762685542</v>
+        <v>0.3252205598932889</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>18.2</v>
+        <v>0.7</v>
       </c>
       <c r="B95" t="n">
-        <v>12.5</v>
+        <v>6.3</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>-26.92865209686</v>
+        <v>-6.034328569099227</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13.8</v>
+        <v>23.7</v>
       </c>
       <c r="B96" t="n">
-        <v>17.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>-10.46023977632069</v>
+        <v>-41.37475161384312</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.6</v>
+        <v>29.7</v>
       </c>
       <c r="B97" t="n">
-        <v>28.1</v>
+        <v>11.7</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>24.97114433571145</v>
+        <v>-48.74711759469886</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7.2</v>
+        <v>28.7</v>
       </c>
       <c r="B98" t="n">
-        <v>29.2</v>
+        <v>25</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>20.38179458817932</v>
+        <v>-24.89657825167667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.1</v>
+        <v>20.8</v>
       </c>
       <c r="B99" t="n">
-        <v>27.7</v>
+        <v>25.6</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>21.63468140932942</v>
+        <v>-9.824554568612729</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>22</v>
+        <v>24.9</v>
       </c>
       <c r="B100" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>-37.3500627307161</v>
+        <v>-44.01073592314499</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>17.2</v>
+        <v>27.4</v>
       </c>
       <c r="B101" t="n">
-        <v>18.1</v>
+        <v>39.2</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>-15.8547349982759</v>
+        <v>0.9818809805750845</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>25</v>
+        <v>14.7</v>
       </c>
       <c r="B102" t="n">
-        <v>27.3</v>
+        <v>31.8</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>-14.48742027815572</v>
+        <v>11.33226727112832</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>12.7</v>
+        <v>28.2</v>
       </c>
       <c r="B103" t="n">
-        <v>21.5</v>
+        <v>37.3</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>-2.194882720718942</v>
+        <v>-3.596254595610345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="B104" t="n">
-        <v>24</v>
+        <v>22.1</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>-7.490318171004555</v>
+        <v>-11.89027092783616</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="B105" t="n">
-        <v>32.2</v>
+        <v>16.8</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>14.49054737815652</v>
+        <v>6.042853547247176</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="B106" t="n">
-        <v>24.9</v>
+        <v>18.4</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>-2.61147317211387</v>
+        <v>-13.9314819663893</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="B107" t="n">
-        <v>30.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>8.947981743191121</v>
+        <v>-28.20147564199549</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>19.6</v>
+        <v>26.9</v>
       </c>
       <c r="B108" t="n">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>-31.74623379407497</v>
+        <v>-43.75799865279187</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B109" t="n">
-        <v>34.6</v>
+        <v>22</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>18.29468837525094</v>
+        <v>3.802069835635258</v>
       </c>
     </row>
     <row r="110">
@@ -1814,1451 +1814,1451 @@
         <v>19.8</v>
       </c>
       <c r="B110" t="n">
-        <v>15.4</v>
+        <v>5.6</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>-24.96760259497952</v>
+        <v>-41.22875817880983</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17.7</v>
+        <v>5.9</v>
       </c>
       <c r="B111" t="n">
-        <v>17.7</v>
+        <v>39</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>-17.40936973111971</v>
+        <v>38.9593268236093</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>11.6</v>
+        <v>1.9</v>
       </c>
       <c r="B112" t="n">
-        <v>38.4</v>
+        <v>21.8</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>27.80732516632943</v>
+        <v>17.54665224654978</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="B113" t="n">
-        <v>12.2</v>
+        <v>35.1</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>-12.45908574819505</v>
+        <v>39.79354621538759</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>27.6</v>
+        <v>17.6</v>
       </c>
       <c r="B114" t="n">
-        <v>18.4</v>
+        <v>21.5</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>-33.88795773401729</v>
+        <v>-10.92584086905619</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>26.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B115" t="n">
-        <v>33.8</v>
+        <v>19.2</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>-6.018336593541425</v>
+        <v>0.9378535766505216</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>21.4</v>
+        <v>18.5</v>
       </c>
       <c r="B116" t="n">
-        <v>24</v>
+        <v>17.8</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>-13.54853402903448</v>
+        <v>-18.66890212693161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>12.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B117" t="n">
-        <v>36.6</v>
+        <v>31.4</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>22.50420565239358</v>
+        <v>21.35951579628288</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>19.6</v>
+        <v>25.2</v>
       </c>
       <c r="B118" t="n">
-        <v>30.2</v>
+        <v>26.7</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>-0.05357342150774969</v>
+        <v>-15.83936687097542</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.7</v>
+        <v>19.7</v>
       </c>
       <c r="B119" t="n">
-        <v>24.9</v>
+        <v>7.5</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>19.48319642775997</v>
+        <v>-37.89790233810115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.9</v>
+        <v>4.7</v>
       </c>
       <c r="B120" t="n">
-        <v>6.9</v>
+        <v>21.7</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>-21.43156699553872</v>
+        <v>12.39160314562411</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="B121" t="n">
-        <v>18.8</v>
+        <v>10.2</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>-7.922276749699959</v>
+        <v>-20.76680787047557</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="B122" t="n">
         <v>6.5</v>
-      </c>
-      <c r="B122" t="n">
-        <v>37.1</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>34.73755688613152</v>
+        <v>-23.520750186444</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>26.8</v>
+        <v>16.7</v>
       </c>
       <c r="B123" t="n">
-        <v>16.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>-35.28330788250422</v>
+        <v>-28.73602410005695</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>18.3</v>
       </c>
       <c r="B124" t="n">
-        <v>10.9</v>
+        <v>36.9</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>-0.71791790583978</v>
+        <v>13.38012388434325</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.7</v>
+        <v>18.5</v>
       </c>
       <c r="B125" t="n">
-        <v>22.8</v>
+        <v>29.1</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>1.74403754006207</v>
+        <v>0.08120584217884286</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>19.5</v>
+        <v>0.3</v>
       </c>
       <c r="B126" t="n">
-        <v>27.2</v>
+        <v>8.5</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>-4.853295372714225</v>
+        <v>-1.671133793273057</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="B127" t="n">
-        <v>11.2</v>
+        <v>30.7</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>-11.08927940936685</v>
+        <v>27.14713463795118</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17.7</v>
+        <v>1.5</v>
       </c>
       <c r="B128" t="n">
-        <v>12.3</v>
+        <v>9.4</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>-26.36959831812825</v>
+        <v>-2.315956194350823</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>23</v>
+        <v>24.8</v>
       </c>
       <c r="B129" t="n">
-        <v>13.8</v>
+        <v>37.3</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>-33.32433535860063</v>
+        <v>2.461961262419575</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="B130" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>-9.805241692884664</v>
+        <v>-13.70740397266024</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="B131" t="n">
-        <v>15.1</v>
+        <v>18.6</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>-22.25810232366677</v>
+        <v>-3.086835306476491</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>23.3</v>
+        <v>20.6</v>
       </c>
       <c r="B132" t="n">
-        <v>8.6</v>
+        <v>31</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>-42.48725208563327</v>
+        <v>-0.5079603428965545</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="B133" t="n">
-        <v>9.699999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>-0.7490688011718678</v>
+        <v>27.85322034070467</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="B134" t="n">
-        <v>25.4</v>
+        <v>22</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>3.385479384240337</v>
+        <v>-3.681608577225237</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>23.8</v>
+        <v>29.5</v>
       </c>
       <c r="B135" t="n">
-        <v>28.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>-10.35806453768575</v>
+        <v>-53.20272656753284</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.7</v>
+        <v>23.3</v>
       </c>
       <c r="B136" t="n">
-        <v>29.4</v>
+        <v>14.1</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>25.1682253900622</v>
+        <v>-33.36109333960606</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>18.8</v>
+        <v>8.5</v>
       </c>
       <c r="B137" t="n">
-        <v>31.3</v>
+        <v>11.9</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>3.19712088252826</v>
+        <v>-10.6404995736514</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.3</v>
+        <v>19.8</v>
       </c>
       <c r="B138" t="n">
-        <v>33.6</v>
+        <v>16.4</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>22.15905418503263</v>
+        <v>-23.30830100479276</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="B139" t="n">
-        <v>16.2</v>
+        <v>21.7</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>-10.81099832935498</v>
+        <v>-0.9721083059124851</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="B140" t="n">
-        <v>16.2</v>
+        <v>32.5</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>1.483616206058688</v>
+        <v>29.06478058416443</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.5</v>
+        <v>16.9</v>
       </c>
       <c r="B141" t="n">
-        <v>21.9</v>
+        <v>37.3</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>-2.956624639474807</v>
+        <v>16.53840399137146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>22.5</v>
+        <v>1.3</v>
       </c>
       <c r="B142" t="n">
-        <v>29.4</v>
+        <v>26.6</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>-6.54831645491798</v>
+        <v>26.58039679556919</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>19.4</v>
+        <v>28.5</v>
       </c>
       <c r="B143" t="n">
-        <v>20.4</v>
+        <v>38.9</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>-15.95836336663041</v>
+        <v>-1.475920509372983</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="B144" t="n">
-        <v>29.8</v>
+        <v>17.7</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>22.80283809712195</v>
+        <v>7.714407797769084</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>15</v>
+        <v>24.7</v>
       </c>
       <c r="B145" t="n">
-        <v>5.6</v>
+        <v>36.3</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>-32.6759828498264</v>
+        <v>0.9808424915866283</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>29</v>
+        <v>21.5</v>
       </c>
       <c r="B146" t="n">
-        <v>34.3</v>
+        <v>8</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>-9.999621921001216</v>
+        <v>-40.27554229137655</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22.9</v>
+        <v>7.5</v>
       </c>
       <c r="B147" t="n">
-        <v>38.7</v>
+        <v>25.6</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>8.170457056403659</v>
+        <v>13.87376040544551</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>24.6</v>
+        <v>9.6</v>
       </c>
       <c r="B148" t="n">
-        <v>25.9</v>
+        <v>17.3</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>-16.09771122700191</v>
+        <v>-3.640281999534896</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.1</v>
+        <v>1.6</v>
       </c>
       <c r="B149" t="n">
-        <v>37.2</v>
+        <v>31.3</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>21.36159277425978</v>
+        <v>33.84456581138552</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="B150" t="n">
-        <v>18.6</v>
+        <v>33.6</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>6.891402577337498</v>
+        <v>22.6936026430941</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4.6</v>
+        <v>13.2</v>
       </c>
       <c r="B151" t="n">
-        <v>31.6</v>
+        <v>32.9</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>28.99687170782691</v>
+        <v>15.83024131064108</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="B152" t="n">
-        <v>7.3</v>
+        <v>31.4</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>-11.85870539177295</v>
+        <v>30.80320522203542</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>28.6</v>
+        <v>24.7</v>
       </c>
       <c r="B153" t="n">
-        <v>13.9</v>
+        <v>21.1</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>-43.13664308339595</v>
+        <v>-24.2405416792522</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.6</v>
+        <v>28.3</v>
       </c>
       <c r="B154" t="n">
-        <v>37.4</v>
+        <v>10.4</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>27.92985176968087</v>
+        <v>-48.40965019098816</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>29.2</v>
+        <v>21.7</v>
       </c>
       <c r="B155" t="n">
-        <v>5.8</v>
+        <v>27.2</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>-57.64608288003168</v>
+        <v>-8.773317398498296</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8.300000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="B156" t="n">
-        <v>37.4</v>
+        <v>28.5</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>32.02805661481877</v>
+        <v>6.391120481573456</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6.3</v>
+        <v>18.1</v>
       </c>
       <c r="B157" t="n">
-        <v>35.8</v>
+        <v>10.8</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>32.93683045759636</v>
+        <v>-29.57128198082368</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="B158" t="n">
-        <v>28.4</v>
+        <v>22</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>26.00348327082894</v>
+        <v>20.72943767424828</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="B159" t="n">
-        <v>25.7</v>
+        <v>18</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>10.29785135803393</v>
+        <v>-16.55521361535604</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="B160" t="n">
-        <v>10.7</v>
+        <v>22.5</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>-5.504348707722666</v>
+        <v>9.086291114574173</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.9</v>
+        <v>11.7</v>
       </c>
       <c r="B161" t="n">
-        <v>32</v>
+        <v>33.3</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>18.43507472461088</v>
+        <v>19.1667042370231</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.1</v>
+        <v>23.1</v>
       </c>
       <c r="B162" t="n">
-        <v>38.2</v>
+        <v>17.3</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>39.05734810629047</v>
+        <v>-27.69496261230077</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>28.8</v>
+        <v>19.8</v>
       </c>
       <c r="B163" t="n">
-        <v>26.3</v>
+        <v>35.1</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>-22.91766900378769</v>
+        <v>7.720638731699761</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>19.7</v>
+        <v>9.6</v>
       </c>
       <c r="B164" t="n">
-        <v>13.3</v>
+        <v>31.8</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>-28.27395311501791</v>
+        <v>20.4195910581732</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="B165" t="n">
-        <v>17.4</v>
+        <v>38.1</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>11.13663934649712</v>
+        <v>47.44419327625521</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>28.5</v>
+        <v>14.1</v>
       </c>
       <c r="B166" t="n">
-        <v>29.1</v>
+        <v>38.5</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>-17.73707609320328</v>
+        <v>23.51868484150258</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="B167" t="n">
-        <v>22.7</v>
+        <v>9.5</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>9.774517071319167</v>
+        <v>-2.328208854685968</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>17.2</v>
+        <v>27.9</v>
       </c>
       <c r="B168" t="n">
-        <v>37.1</v>
+        <v>33.3</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>15.67199521527265</v>
+        <v>-9.698912498295943</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="B169" t="n">
-        <v>24</v>
+        <v>10.4</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>12.82252323533107</v>
+        <v>-13.30763477828537</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5.2</v>
+        <v>27.6</v>
       </c>
       <c r="B170" t="n">
-        <v>31.9</v>
+        <v>31.1</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>28.42556526876001</v>
+        <v>-12.81482753864536</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>27.2</v>
+        <v>0.6</v>
       </c>
       <c r="B171" t="n">
-        <v>38.6</v>
+        <v>28.8</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>0.3426656651706672</v>
+        <v>31.47814002945682</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>11.3</v>
+        <v>28.8</v>
       </c>
       <c r="B172" t="n">
-        <v>7.2</v>
+        <v>21</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>-23.4283359894362</v>
+        <v>-31.71196743177755</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11.5</v>
+        <v>22.5</v>
       </c>
       <c r="B173" t="n">
-        <v>37.4</v>
+        <v>36.6</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>26.32620639549648</v>
+        <v>5.398654994426739</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4.2</v>
+        <v>15.3</v>
       </c>
       <c r="B174" t="n">
-        <v>14.8</v>
+        <v>19.2</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>1.833336270104539</v>
+        <v>-10.64402968134786</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.4</v>
+        <v>27.9</v>
       </c>
       <c r="B175" t="n">
-        <v>37.5</v>
+        <v>32.4</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>30.23397576094541</v>
+        <v>-11.19228392946403</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>26.8</v>
+        <v>1.6</v>
       </c>
       <c r="B176" t="n">
-        <v>16.1</v>
+        <v>24.8</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>-36.27888883661628</v>
+        <v>23.05910547517155</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.7</v>
+        <v>20.3</v>
       </c>
       <c r="B177" t="n">
-        <v>19.7</v>
+        <v>21</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>-14.09076655074618</v>
+        <v>-16.56642778670274</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.3</v>
+        <v>21.6</v>
       </c>
       <c r="B178" t="n">
-        <v>23.2</v>
+        <v>28.9</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>15.59328680831954</v>
+        <v>-5.774321875826974</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>18.1</v>
+        <v>2.4</v>
       </c>
       <c r="B179" t="n">
-        <v>18.6</v>
+        <v>31.2</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>-16.62872957736691</v>
+        <v>32.25317309753628</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>7</v>
+        <v>17.6</v>
       </c>
       <c r="B180" t="n">
-        <v>31.8</v>
+        <v>33.4</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>25.05234436137255</v>
+        <v>8.819848054166318</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20.1</v>
+        <v>11.6</v>
       </c>
       <c r="B181" t="n">
-        <v>34.2</v>
+        <v>33.3</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>5.69271884247021</v>
+        <v>19.34488705637692</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="B182" t="n">
-        <v>38.7</v>
+        <v>16</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>48.08340859165963</v>
+        <v>-20.76473089249868</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25.2</v>
+        <v>12.9</v>
       </c>
       <c r="B183" t="n">
-        <v>29.6</v>
+        <v>39.5</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>-11.0273922594338</v>
+        <v>27.31618026393519</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="B184" t="n">
-        <v>37.7</v>
+        <v>7.1</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>28.42764224673691</v>
+        <v>-22.52516923233194</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>26.2</v>
+        <v>19.1</v>
       </c>
       <c r="B185" t="n">
-        <v>14.6</v>
+        <v>24.7</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>-37.6987443057735</v>
+        <v>-8.28881807076586</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>24.7</v>
+        <v>17.6</v>
       </c>
       <c r="B186" t="n">
-        <v>34.2</v>
+        <v>33.1</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>-2.503690847805569</v>
+        <v>8.322057577110293</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="B187" t="n">
-        <v>14.5</v>
+        <v>39.2</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>2.404642709171434</v>
+        <v>35.72753075457023</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="B188" t="n">
-        <v>10.1</v>
+        <v>24</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>-5.074467107004157</v>
+        <v>7.477038654716431</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>19</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B189" t="n">
-        <v>27.5</v>
+        <v>19.4</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>-3.464590798889093</v>
+        <v>-0.3339314794965134</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>28.5</v>
+        <v>14.6</v>
       </c>
       <c r="B190" t="n">
-        <v>30.3</v>
+        <v>39.1</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>-15.74591418497916</v>
+        <v>23.62335169884553</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.2</v>
+        <v>19.7</v>
       </c>
       <c r="B191" t="n">
-        <v>40</v>
+        <v>34.1</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>18.70214163327605</v>
+        <v>6.239519960866819</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>25.4</v>
+        <v>17.7</v>
       </c>
       <c r="B192" t="n">
-        <v>9.6</v>
+        <v>23.3</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>-44.56978970187676</v>
+        <v>-8.117280826073824</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>23</v>
+        <v>8.1</v>
       </c>
       <c r="B193" t="n">
-        <v>11.5</v>
+        <v>19.6</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>-37.14072901603019</v>
+        <v>2.848853948201985</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>21.2</v>
+        <v>16.5</v>
       </c>
       <c r="B194" t="n">
-        <v>19.7</v>
+        <v>31</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>-20.32716522812993</v>
+        <v>6.797535250610125</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>29.9</v>
+        <v>14.2</v>
       </c>
       <c r="B195" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>-54.0813880039668</v>
+        <v>-22.78808218504333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="B196" t="n">
-        <v>26.1</v>
+        <v>8.1</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>21.47435833598409</v>
+        <v>-14.45128614540761</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>20.4</v>
+        <v>6.2</v>
       </c>
       <c r="B197" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>6.485611656558159</v>
+        <v>30.12827041461401</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>22.5</v>
+        <v>3.3</v>
       </c>
       <c r="B198" t="n">
-        <v>31.5</v>
+        <v>15.7</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>-3.063783115525769</v>
+        <v>4.930353075457017</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>13.3</v>
+        <v>20.1</v>
       </c>
       <c r="B199" t="n">
-        <v>10.5</v>
+        <v>31.6</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>-21.51629712889629</v>
+        <v>1.378534707984617</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>16.2</v>
+        <v>13.9</v>
       </c>
       <c r="B200" t="n">
-        <v>32.4</v>
+        <v>6.9</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>9.655105934933058</v>
+        <v>-28.55887976969158</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.8</v>
+        <v>28.8</v>
       </c>
       <c r="B201" t="n">
-        <v>5.4</v>
+        <v>14.4</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>-27.30599294854148</v>
+        <v>-42.6633579270102</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8.4</v>
+        <v>19</v>
       </c>
       <c r="B202" t="n">
-        <v>35.9</v>
+        <v>27.1</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>29.36092141018479</v>
+        <v>-4.128311434963797</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>17.3</v>
+        <v>10.1</v>
       </c>
       <c r="B203" t="n">
-        <v>32.3</v>
+        <v>18.6</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>7.52916476302234</v>
+        <v>-2.374104029061208</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.3</v>
+        <v>1.2</v>
       </c>
       <c r="B204" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="n">
-        <v>-16.60983134236998</v>
+        <v>18.29614150497051</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>24</v>
+        <v>20.4</v>
       </c>
       <c r="B205" t="n">
-        <v>26.9</v>
+        <v>36.6</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>-13.36931272069221</v>
+        <v>9.140494200856988</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>11.6</v>
+        <v>25.7</v>
       </c>
       <c r="B206" t="n">
-        <v>23.1</v>
+        <v>20.7</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="n">
-        <v>2.420010836471917</v>
+        <v>-26.68609050886512</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>15.3</v>
+        <v>4.1</v>
       </c>
       <c r="B207" t="n">
-        <v>6.2</v>
+        <v>33.1</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>-32.21495035377581</v>
+        <v>32.37673818987617</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>26.6</v>
+        <v>3.2</v>
       </c>
       <c r="B208" t="n">
-        <v>38.3</v>
+        <v>10.9</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>0.9139721042375548</v>
+        <v>-2.856111738085637</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="B209" t="n">
-        <v>5.1</v>
+        <v>28</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>-14.08370633535327</v>
+        <v>14.1142450154635</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>16.2</v>
+        <v>27.6</v>
       </c>
       <c r="B210" t="n">
-        <v>16.1</v>
+        <v>5.1</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>-17.39150998511122</v>
+        <v>-55.95666888350127</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>28.9</v>
+        <v>24.3</v>
       </c>
       <c r="B211" t="n">
-        <v>27.6</v>
+        <v>16.2</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>-20.93875975589872</v>
+        <v>-31.65838819375207</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.5</v>
+        <v>21.5</v>
       </c>
       <c r="B212" t="n">
-        <v>17.8</v>
+        <v>5.8</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>13.40400535675622</v>
+        <v>-43.92600578978744</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
       <c r="B213" t="n">
-        <v>31.1</v>
+        <v>38.1</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>32.26542575787142</v>
+        <v>30.87319107634983</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>24.4</v>
+        <v>6.9</v>
       </c>
       <c r="B214" t="n">
-        <v>33.6</v>
+        <v>9.5</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>-2.964723343856166</v>
+        <v>-11.7718982804385</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>17.9</v>
+        <v>18.4</v>
       </c>
       <c r="B215" t="n">
-        <v>5.5</v>
+        <v>19.2</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>-38.0092147701059</v>
+        <v>-16.16769708131632</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="B216" t="n">
-        <v>11.3</v>
+        <v>9</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>-9.676069514871424</v>
+        <v>-4.761505023963743</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>6.9</v>
+        <v>10.5</v>
       </c>
       <c r="B217" t="n">
-        <v>29.4</v>
+        <v>38.9</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>21.24820336427814</v>
+        <v>30.59698697431485</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>29.1</v>
+        <v>26.1</v>
       </c>
       <c r="B218" t="n">
-        <v>23.9</v>
+        <v>29.7</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>-27.4345412782974</v>
+        <v>-12.46510747459952</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>6.1</v>
+        <v>18.4</v>
       </c>
       <c r="B219" t="n">
-        <v>17.4</v>
+        <v>20.8</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>2.762046836867519</v>
+        <v>-13.51281453701749</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="B220" t="n">
-        <v>37.6</v>
+        <v>36</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>17.0361944684275</v>
+        <v>13.66858064671338</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>15.7</v>
+        <v>7.8</v>
       </c>
       <c r="B221" t="n">
-        <v>8.1</v>
+        <v>33</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>-29.77500860983624</v>
+        <v>25.6180437147661</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>6.3</v>
+        <v>27.8</v>
       </c>
       <c r="B222" t="n">
-        <v>27.7</v>
+        <v>32.2</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>19.49648757708356</v>
+        <v>-11.34596142814756</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>13.3</v>
+        <v>3.1</v>
       </c>
       <c r="B223" t="n">
-        <v>12.3</v>
+        <v>26.7</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>-18.52955426656012</v>
+        <v>23.53903620621908</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>10.2</v>
+        <v>2.5</v>
       </c>
       <c r="B224" t="n">
-        <v>19.9</v>
+        <v>30.4</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>-0.3951947811722363</v>
+        <v>30.74754900603304</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>24.2</v>
+        <v>20.6</v>
       </c>
       <c r="B225" t="n">
-        <v>10.3</v>
+        <v>25.9</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>-41.27008475650016</v>
+        <v>-8.970398452849061</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>10.1</v>
+        <v>3.1</v>
       </c>
       <c r="B226" t="n">
-        <v>27.7</v>
+        <v>11.9</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>12.72554044163835</v>
+        <v>-1.018627328545049</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>23.8</v>
+        <v>3.7</v>
       </c>
       <c r="B227" t="n">
-        <v>36.4</v>
+        <v>27.5</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>2.750418024789695</v>
+        <v>23.79738056224556</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3.7</v>
+        <v>11.3</v>
       </c>
       <c r="B228" t="n">
-        <v>36.9</v>
+        <v>7.3</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>39.39481551000116</v>
+        <v>-23.26240583041752</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>26.6</v>
+        <v>22.8</v>
       </c>
       <c r="B229" t="n">
-        <v>8.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>-48.8650756013654</v>
+        <v>-39.10738560358402</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>23.4</v>
+        <v>15.4</v>
       </c>
       <c r="B230" t="n">
-        <v>12.3</v>
+        <v>33</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>-36.52601902129607</v>
+        <v>12.07614944387569</v>
       </c>
     </row>
   </sheetData>
